--- a/data/saek.xlsx
+++ b/data/saek.xlsx
@@ -366,7 +366,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,15 +387,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,7 +426,7 @@
     <cellStyle name="Accent 1 1" xfId="20"/>
     <cellStyle name="Accent 1 2" xfId="21"/>
     <cellStyle name="Accent 1 3" xfId="22"/>
-    <cellStyle name="Accent 1" xfId="23"/>
+    <cellStyle name="Accent 1 4" xfId="23"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -552,8 +544,8 @@
   </sheetPr>
   <dimension ref="A1:AS1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI2" activeCellId="0" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -592,9 +584,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="22.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="36.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="28.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="38.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="28.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="28.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="38.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="28.94"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,29 +708,29 @@
         <v>38</v>
       </c>
       <c r="AN1" s="5"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -759,10 +751,10 @@
       <c r="L2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -819,7 +811,7 @@
       <c r="AF2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AH2" s="2" t="s">
@@ -828,4006 +820,4009 @@
       <c r="AI2" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AJ2" s="1" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="D22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="D24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="D25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="N26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="N27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="D28" s="8"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="N29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="D30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="D31" s="8"/>
+      <c r="N31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="N32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="D33" s="8"/>
+      <c r="N33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="D34" s="8"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="D35" s="8"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="D36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="D37" s="8"/>
+      <c r="N37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="D38" s="8"/>
+      <c r="N38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="D39" s="8"/>
+      <c r="N39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="D40" s="8"/>
+      <c r="N40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="D41" s="8"/>
+      <c r="N41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="D42" s="8"/>
+      <c r="N42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="D43" s="8"/>
+      <c r="N43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="D44" s="8"/>
+      <c r="N44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="D45" s="8"/>
+      <c r="N45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="10"/>
-      <c r="N46" s="10"/>
+      <c r="D46" s="8"/>
+      <c r="N46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="D47" s="8"/>
+      <c r="N47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="D48" s="8"/>
+      <c r="N48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="10"/>
-      <c r="N49" s="10"/>
+      <c r="D49" s="8"/>
+      <c r="N49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="10"/>
-      <c r="N50" s="10"/>
+      <c r="D50" s="8"/>
+      <c r="N50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="10"/>
-      <c r="N51" s="10"/>
+      <c r="D51" s="8"/>
+      <c r="N51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="10"/>
-      <c r="N52" s="10"/>
+      <c r="D52" s="8"/>
+      <c r="N52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="10"/>
-      <c r="N53" s="10"/>
+      <c r="D53" s="8"/>
+      <c r="N53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="10"/>
-      <c r="N54" s="10"/>
+      <c r="D54" s="8"/>
+      <c r="N54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="10"/>
-      <c r="N55" s="10"/>
+      <c r="D55" s="8"/>
+      <c r="N55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="10"/>
-      <c r="N56" s="10"/>
+      <c r="D56" s="8"/>
+      <c r="N56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="10"/>
-      <c r="N57" s="10"/>
+      <c r="D57" s="8"/>
+      <c r="N57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="10"/>
-      <c r="N58" s="10"/>
+      <c r="D58" s="8"/>
+      <c r="N58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="10"/>
-      <c r="N59" s="10"/>
+      <c r="D59" s="8"/>
+      <c r="N59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="10"/>
-      <c r="N60" s="10"/>
+      <c r="D60" s="8"/>
+      <c r="N60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="10"/>
-      <c r="N61" s="10"/>
+      <c r="D61" s="8"/>
+      <c r="N61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="10"/>
-      <c r="N62" s="10"/>
+      <c r="D62" s="8"/>
+      <c r="N62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="10"/>
-      <c r="N63" s="10"/>
+      <c r="D63" s="8"/>
+      <c r="N63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="10"/>
-      <c r="N64" s="10"/>
+      <c r="D64" s="8"/>
+      <c r="N64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="10"/>
-      <c r="N65" s="10"/>
+      <c r="D65" s="8"/>
+      <c r="N65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="10"/>
-      <c r="N66" s="10"/>
+      <c r="D66" s="8"/>
+      <c r="N66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="10"/>
-      <c r="N67" s="10"/>
+      <c r="D67" s="8"/>
+      <c r="N67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="10"/>
-      <c r="N68" s="10"/>
+      <c r="D68" s="8"/>
+      <c r="N68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="10"/>
-      <c r="N69" s="10"/>
+      <c r="D69" s="8"/>
+      <c r="N69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="10"/>
-      <c r="N70" s="10"/>
+      <c r="D70" s="8"/>
+      <c r="N70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="10"/>
-      <c r="N71" s="10"/>
+      <c r="D71" s="8"/>
+      <c r="N71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="10"/>
-      <c r="N72" s="10"/>
+      <c r="D72" s="8"/>
+      <c r="N72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="10"/>
-      <c r="N73" s="10"/>
+      <c r="D73" s="8"/>
+      <c r="N73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="10"/>
-      <c r="N74" s="10"/>
+      <c r="D74" s="8"/>
+      <c r="N74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="10"/>
-      <c r="N75" s="10"/>
+      <c r="D75" s="8"/>
+      <c r="N75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="10"/>
-      <c r="N76" s="10"/>
+      <c r="D76" s="8"/>
+      <c r="N76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="10"/>
-      <c r="N77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="N77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="10"/>
-      <c r="N78" s="10"/>
+      <c r="D78" s="8"/>
+      <c r="N78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="10"/>
-      <c r="N79" s="10"/>
+      <c r="D79" s="8"/>
+      <c r="N79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="10"/>
-      <c r="N80" s="10"/>
+      <c r="D80" s="8"/>
+      <c r="N80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="10"/>
-      <c r="N81" s="10"/>
+      <c r="D81" s="8"/>
+      <c r="N81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="10"/>
-      <c r="N82" s="10"/>
+      <c r="D82" s="8"/>
+      <c r="N82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="10"/>
-      <c r="N83" s="10"/>
+      <c r="D83" s="8"/>
+      <c r="N83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="10"/>
-      <c r="N84" s="10"/>
+      <c r="D84" s="8"/>
+      <c r="N84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="10"/>
-      <c r="N85" s="10"/>
+      <c r="D85" s="8"/>
+      <c r="N85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="10"/>
-      <c r="N86" s="10"/>
+      <c r="D86" s="8"/>
+      <c r="N86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="10"/>
-      <c r="N87" s="10"/>
+      <c r="D87" s="8"/>
+      <c r="N87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="10"/>
-      <c r="N88" s="10"/>
+      <c r="D88" s="8"/>
+      <c r="N88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="10"/>
-      <c r="N89" s="10"/>
+      <c r="D89" s="8"/>
+      <c r="N89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="10"/>
-      <c r="N90" s="10"/>
+      <c r="D90" s="8"/>
+      <c r="N90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="10"/>
-      <c r="N91" s="10"/>
+      <c r="D91" s="8"/>
+      <c r="N91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="10"/>
-      <c r="N92" s="10"/>
+      <c r="D92" s="8"/>
+      <c r="N92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D93" s="10"/>
-      <c r="N93" s="10"/>
+      <c r="D93" s="8"/>
+      <c r="N93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="10"/>
-      <c r="N94" s="10"/>
+      <c r="D94" s="8"/>
+      <c r="N94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="10"/>
-      <c r="N95" s="10"/>
+      <c r="D95" s="8"/>
+      <c r="N95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="10"/>
-      <c r="N96" s="10"/>
+      <c r="D96" s="8"/>
+      <c r="N96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="10"/>
-      <c r="N97" s="10"/>
+      <c r="D97" s="8"/>
+      <c r="N97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="10"/>
-      <c r="N98" s="10"/>
+      <c r="D98" s="8"/>
+      <c r="N98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="10"/>
-      <c r="N99" s="10"/>
+      <c r="D99" s="8"/>
+      <c r="N99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D100" s="10"/>
-      <c r="N100" s="10"/>
+      <c r="D100" s="8"/>
+      <c r="N100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="10"/>
-      <c r="N101" s="10"/>
+      <c r="D101" s="8"/>
+      <c r="N101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D102" s="10"/>
-      <c r="N102" s="10"/>
+      <c r="D102" s="8"/>
+      <c r="N102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D103" s="10"/>
-      <c r="N103" s="10"/>
+      <c r="D103" s="8"/>
+      <c r="N103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="10"/>
-      <c r="N104" s="10"/>
+      <c r="D104" s="8"/>
+      <c r="N104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D105" s="10"/>
-      <c r="N105" s="10"/>
+      <c r="D105" s="8"/>
+      <c r="N105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="10"/>
-      <c r="N106" s="10"/>
+      <c r="D106" s="8"/>
+      <c r="N106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D107" s="10"/>
-      <c r="N107" s="10"/>
+      <c r="D107" s="8"/>
+      <c r="N107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D108" s="10"/>
-      <c r="N108" s="10"/>
+      <c r="D108" s="8"/>
+      <c r="N108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D109" s="10"/>
-      <c r="N109" s="10"/>
+      <c r="D109" s="8"/>
+      <c r="N109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D110" s="10"/>
-      <c r="N110" s="10"/>
+      <c r="D110" s="8"/>
+      <c r="N110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D111" s="10"/>
-      <c r="N111" s="10"/>
+      <c r="D111" s="8"/>
+      <c r="N111" s="8"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D112" s="10"/>
-      <c r="N112" s="10"/>
+      <c r="D112" s="8"/>
+      <c r="N112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D113" s="10"/>
-      <c r="N113" s="10"/>
+      <c r="D113" s="8"/>
+      <c r="N113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D114" s="10"/>
-      <c r="N114" s="10"/>
+      <c r="D114" s="8"/>
+      <c r="N114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D115" s="10"/>
-      <c r="N115" s="10"/>
+      <c r="D115" s="8"/>
+      <c r="N115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D116" s="10"/>
-      <c r="N116" s="10"/>
+      <c r="D116" s="8"/>
+      <c r="N116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D117" s="10"/>
-      <c r="N117" s="10"/>
+      <c r="D117" s="8"/>
+      <c r="N117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D118" s="10"/>
-      <c r="N118" s="10"/>
+      <c r="D118" s="8"/>
+      <c r="N118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="10"/>
-      <c r="N119" s="10"/>
+      <c r="D119" s="8"/>
+      <c r="N119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D120" s="10"/>
-      <c r="N120" s="10"/>
+      <c r="D120" s="8"/>
+      <c r="N120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D121" s="10"/>
-      <c r="N121" s="10"/>
+      <c r="D121" s="8"/>
+      <c r="N121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D122" s="10"/>
-      <c r="N122" s="10"/>
+      <c r="D122" s="8"/>
+      <c r="N122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D123" s="10"/>
-      <c r="N123" s="10"/>
+      <c r="D123" s="8"/>
+      <c r="N123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D124" s="10"/>
-      <c r="N124" s="10"/>
+      <c r="D124" s="8"/>
+      <c r="N124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D125" s="10"/>
-      <c r="N125" s="10"/>
+      <c r="D125" s="8"/>
+      <c r="N125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D126" s="10"/>
-      <c r="N126" s="10"/>
+      <c r="D126" s="8"/>
+      <c r="N126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D127" s="10"/>
-      <c r="N127" s="10"/>
+      <c r="D127" s="8"/>
+      <c r="N127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D128" s="10"/>
-      <c r="N128" s="10"/>
+      <c r="D128" s="8"/>
+      <c r="N128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D129" s="10"/>
-      <c r="N129" s="10"/>
+      <c r="D129" s="8"/>
+      <c r="N129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D130" s="10"/>
-      <c r="N130" s="10"/>
+      <c r="D130" s="8"/>
+      <c r="N130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D131" s="10"/>
-      <c r="N131" s="10"/>
+      <c r="D131" s="8"/>
+      <c r="N131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D132" s="10"/>
-      <c r="N132" s="10"/>
+      <c r="D132" s="8"/>
+      <c r="N132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D133" s="10"/>
-      <c r="N133" s="10"/>
+      <c r="D133" s="8"/>
+      <c r="N133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="10"/>
-      <c r="N134" s="10"/>
+      <c r="D134" s="8"/>
+      <c r="N134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D135" s="10"/>
-      <c r="N135" s="10"/>
+      <c r="D135" s="8"/>
+      <c r="N135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D136" s="10"/>
-      <c r="N136" s="10"/>
+      <c r="D136" s="8"/>
+      <c r="N136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D137" s="10"/>
-      <c r="N137" s="10"/>
+      <c r="D137" s="8"/>
+      <c r="N137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D138" s="10"/>
-      <c r="N138" s="10"/>
+      <c r="D138" s="8"/>
+      <c r="N138" s="8"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D139" s="10"/>
-      <c r="N139" s="10"/>
+      <c r="D139" s="8"/>
+      <c r="N139" s="8"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="10"/>
-      <c r="N140" s="10"/>
+      <c r="D140" s="8"/>
+      <c r="N140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D141" s="10"/>
-      <c r="N141" s="10"/>
+      <c r="D141" s="8"/>
+      <c r="N141" s="8"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D142" s="10"/>
-      <c r="N142" s="10"/>
+      <c r="D142" s="8"/>
+      <c r="N142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D143" s="10"/>
-      <c r="N143" s="10"/>
+      <c r="D143" s="8"/>
+      <c r="N143" s="8"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D144" s="10"/>
-      <c r="N144" s="10"/>
+      <c r="D144" s="8"/>
+      <c r="N144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D145" s="10"/>
-      <c r="N145" s="10"/>
+      <c r="D145" s="8"/>
+      <c r="N145" s="8"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D146" s="10"/>
-      <c r="N146" s="10"/>
+      <c r="D146" s="8"/>
+      <c r="N146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D147" s="10"/>
-      <c r="N147" s="10"/>
+      <c r="D147" s="8"/>
+      <c r="N147" s="8"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D148" s="10"/>
-      <c r="N148" s="10"/>
+      <c r="D148" s="8"/>
+      <c r="N148" s="8"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D149" s="10"/>
-      <c r="N149" s="10"/>
+      <c r="D149" s="8"/>
+      <c r="N149" s="8"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D150" s="10"/>
-      <c r="N150" s="10"/>
+      <c r="D150" s="8"/>
+      <c r="N150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D151" s="10"/>
-      <c r="N151" s="10"/>
+      <c r="D151" s="8"/>
+      <c r="N151" s="8"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D152" s="10"/>
-      <c r="N152" s="10"/>
+      <c r="D152" s="8"/>
+      <c r="N152" s="8"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D153" s="10"/>
-      <c r="N153" s="10"/>
+      <c r="D153" s="8"/>
+      <c r="N153" s="8"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D154" s="10"/>
-      <c r="N154" s="10"/>
+      <c r="D154" s="8"/>
+      <c r="N154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D155" s="10"/>
-      <c r="N155" s="10"/>
+      <c r="D155" s="8"/>
+      <c r="N155" s="8"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D156" s="10"/>
-      <c r="N156" s="10"/>
+      <c r="D156" s="8"/>
+      <c r="N156" s="8"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D157" s="10"/>
-      <c r="N157" s="10"/>
+      <c r="D157" s="8"/>
+      <c r="N157" s="8"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D158" s="10"/>
-      <c r="N158" s="10"/>
+      <c r="D158" s="8"/>
+      <c r="N158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D159" s="10"/>
-      <c r="N159" s="10"/>
+      <c r="D159" s="8"/>
+      <c r="N159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D160" s="10"/>
-      <c r="N160" s="10"/>
+      <c r="D160" s="8"/>
+      <c r="N160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D161" s="10"/>
-      <c r="N161" s="10"/>
+      <c r="D161" s="8"/>
+      <c r="N161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D162" s="10"/>
-      <c r="N162" s="10"/>
+      <c r="D162" s="8"/>
+      <c r="N162" s="8"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D163" s="10"/>
-      <c r="N163" s="10"/>
+      <c r="D163" s="8"/>
+      <c r="N163" s="8"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D164" s="10"/>
-      <c r="N164" s="10"/>
+      <c r="D164" s="8"/>
+      <c r="N164" s="8"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D165" s="10"/>
-      <c r="N165" s="10"/>
+      <c r="D165" s="8"/>
+      <c r="N165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D166" s="10"/>
-      <c r="N166" s="10"/>
+      <c r="D166" s="8"/>
+      <c r="N166" s="8"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D167" s="10"/>
-      <c r="N167" s="10"/>
+      <c r="D167" s="8"/>
+      <c r="N167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D168" s="10"/>
-      <c r="N168" s="10"/>
+      <c r="D168" s="8"/>
+      <c r="N168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D169" s="10"/>
-      <c r="N169" s="10"/>
+      <c r="D169" s="8"/>
+      <c r="N169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D170" s="10"/>
-      <c r="N170" s="10"/>
+      <c r="D170" s="8"/>
+      <c r="N170" s="8"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D171" s="10"/>
-      <c r="N171" s="10"/>
+      <c r="D171" s="8"/>
+      <c r="N171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D172" s="10"/>
-      <c r="N172" s="10"/>
+      <c r="D172" s="8"/>
+      <c r="N172" s="8"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D173" s="10"/>
-      <c r="N173" s="10"/>
+      <c r="D173" s="8"/>
+      <c r="N173" s="8"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D174" s="10"/>
-      <c r="N174" s="10"/>
+      <c r="D174" s="8"/>
+      <c r="N174" s="8"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D175" s="10"/>
-      <c r="N175" s="10"/>
+      <c r="D175" s="8"/>
+      <c r="N175" s="8"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D176" s="10"/>
-      <c r="N176" s="10"/>
+      <c r="D176" s="8"/>
+      <c r="N176" s="8"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D177" s="10"/>
-      <c r="N177" s="10"/>
+      <c r="D177" s="8"/>
+      <c r="N177" s="8"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D178" s="10"/>
-      <c r="N178" s="10"/>
+      <c r="D178" s="8"/>
+      <c r="N178" s="8"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D179" s="10"/>
-      <c r="N179" s="10"/>
+      <c r="D179" s="8"/>
+      <c r="N179" s="8"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D180" s="10"/>
-      <c r="N180" s="10"/>
+      <c r="D180" s="8"/>
+      <c r="N180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D181" s="10"/>
-      <c r="N181" s="10"/>
+      <c r="D181" s="8"/>
+      <c r="N181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D182" s="10"/>
-      <c r="N182" s="10"/>
+      <c r="D182" s="8"/>
+      <c r="N182" s="8"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D183" s="10"/>
-      <c r="N183" s="10"/>
+      <c r="D183" s="8"/>
+      <c r="N183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D184" s="10"/>
-      <c r="N184" s="10"/>
+      <c r="D184" s="8"/>
+      <c r="N184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D185" s="10"/>
-      <c r="N185" s="10"/>
+      <c r="D185" s="8"/>
+      <c r="N185" s="8"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D186" s="10"/>
-      <c r="N186" s="10"/>
+      <c r="D186" s="8"/>
+      <c r="N186" s="8"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D187" s="10"/>
-      <c r="N187" s="10"/>
+      <c r="D187" s="8"/>
+      <c r="N187" s="8"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D188" s="10"/>
-      <c r="N188" s="10"/>
+      <c r="D188" s="8"/>
+      <c r="N188" s="8"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D189" s="10"/>
-      <c r="N189" s="10"/>
+      <c r="D189" s="8"/>
+      <c r="N189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D190" s="10"/>
-      <c r="N190" s="10"/>
+      <c r="D190" s="8"/>
+      <c r="N190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D191" s="10"/>
-      <c r="N191" s="10"/>
+      <c r="D191" s="8"/>
+      <c r="N191" s="8"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D192" s="10"/>
-      <c r="N192" s="10"/>
+      <c r="D192" s="8"/>
+      <c r="N192" s="8"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D193" s="10"/>
-      <c r="N193" s="10"/>
+      <c r="D193" s="8"/>
+      <c r="N193" s="8"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D194" s="10"/>
-      <c r="N194" s="10"/>
+      <c r="D194" s="8"/>
+      <c r="N194" s="8"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D195" s="10"/>
-      <c r="N195" s="10"/>
+      <c r="D195" s="8"/>
+      <c r="N195" s="8"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D196" s="10"/>
-      <c r="N196" s="10"/>
+      <c r="D196" s="8"/>
+      <c r="N196" s="8"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D197" s="10"/>
-      <c r="N197" s="10"/>
+      <c r="D197" s="8"/>
+      <c r="N197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D198" s="10"/>
-      <c r="N198" s="10"/>
+      <c r="D198" s="8"/>
+      <c r="N198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D199" s="10"/>
-      <c r="N199" s="10"/>
+      <c r="D199" s="8"/>
+      <c r="N199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D200" s="10"/>
-      <c r="N200" s="10"/>
+      <c r="D200" s="8"/>
+      <c r="N200" s="8"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D201" s="10"/>
-      <c r="N201" s="10"/>
+      <c r="D201" s="8"/>
+      <c r="N201" s="8"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D202" s="10"/>
-      <c r="N202" s="10"/>
+      <c r="D202" s="8"/>
+      <c r="N202" s="8"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D203" s="10"/>
-      <c r="N203" s="10"/>
+      <c r="D203" s="8"/>
+      <c r="N203" s="8"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D204" s="10"/>
-      <c r="N204" s="10"/>
+      <c r="D204" s="8"/>
+      <c r="N204" s="8"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D205" s="10"/>
-      <c r="N205" s="10"/>
+      <c r="D205" s="8"/>
+      <c r="N205" s="8"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D206" s="10"/>
-      <c r="N206" s="10"/>
+      <c r="D206" s="8"/>
+      <c r="N206" s="8"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D207" s="10"/>
-      <c r="N207" s="10"/>
+      <c r="D207" s="8"/>
+      <c r="N207" s="8"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D208" s="10"/>
-      <c r="N208" s="10"/>
+      <c r="D208" s="8"/>
+      <c r="N208" s="8"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D209" s="10"/>
-      <c r="N209" s="10"/>
+      <c r="D209" s="8"/>
+      <c r="N209" s="8"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D210" s="10"/>
-      <c r="N210" s="10"/>
+      <c r="D210" s="8"/>
+      <c r="N210" s="8"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D211" s="10"/>
-      <c r="N211" s="10"/>
+      <c r="D211" s="8"/>
+      <c r="N211" s="8"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D212" s="10"/>
-      <c r="N212" s="10"/>
+      <c r="D212" s="8"/>
+      <c r="N212" s="8"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D213" s="10"/>
-      <c r="N213" s="10"/>
+      <c r="D213" s="8"/>
+      <c r="N213" s="8"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D214" s="10"/>
-      <c r="N214" s="10"/>
+      <c r="D214" s="8"/>
+      <c r="N214" s="8"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D215" s="10"/>
-      <c r="N215" s="10"/>
+      <c r="D215" s="8"/>
+      <c r="N215" s="8"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D216" s="10"/>
-      <c r="N216" s="10"/>
+      <c r="D216" s="8"/>
+      <c r="N216" s="8"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D217" s="10"/>
-      <c r="N217" s="10"/>
+      <c r="D217" s="8"/>
+      <c r="N217" s="8"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D218" s="10"/>
-      <c r="N218" s="10"/>
+      <c r="D218" s="8"/>
+      <c r="N218" s="8"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D219" s="10"/>
-      <c r="N219" s="10"/>
+      <c r="D219" s="8"/>
+      <c r="N219" s="8"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D220" s="10"/>
-      <c r="N220" s="10"/>
+      <c r="D220" s="8"/>
+      <c r="N220" s="8"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D221" s="10"/>
-      <c r="N221" s="10"/>
+      <c r="D221" s="8"/>
+      <c r="N221" s="8"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D222" s="10"/>
-      <c r="N222" s="10"/>
+      <c r="D222" s="8"/>
+      <c r="N222" s="8"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D223" s="10"/>
-      <c r="N223" s="10"/>
+      <c r="D223" s="8"/>
+      <c r="N223" s="8"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D224" s="10"/>
-      <c r="N224" s="10"/>
+      <c r="D224" s="8"/>
+      <c r="N224" s="8"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D225" s="10"/>
-      <c r="N225" s="10"/>
+      <c r="D225" s="8"/>
+      <c r="N225" s="8"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D226" s="10"/>
-      <c r="N226" s="10"/>
+      <c r="D226" s="8"/>
+      <c r="N226" s="8"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D227" s="10"/>
-      <c r="N227" s="10"/>
+      <c r="D227" s="8"/>
+      <c r="N227" s="8"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D228" s="10"/>
-      <c r="N228" s="10"/>
+      <c r="D228" s="8"/>
+      <c r="N228" s="8"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D229" s="10"/>
-      <c r="N229" s="10"/>
+      <c r="D229" s="8"/>
+      <c r="N229" s="8"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D230" s="10"/>
-      <c r="N230" s="10"/>
+      <c r="D230" s="8"/>
+      <c r="N230" s="8"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D231" s="10"/>
-      <c r="N231" s="10"/>
+      <c r="D231" s="8"/>
+      <c r="N231" s="8"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D232" s="10"/>
-      <c r="N232" s="10"/>
+      <c r="D232" s="8"/>
+      <c r="N232" s="8"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D233" s="10"/>
-      <c r="N233" s="10"/>
+      <c r="D233" s="8"/>
+      <c r="N233" s="8"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D234" s="10"/>
-      <c r="N234" s="10"/>
+      <c r="D234" s="8"/>
+      <c r="N234" s="8"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D235" s="10"/>
-      <c r="N235" s="10"/>
+      <c r="D235" s="8"/>
+      <c r="N235" s="8"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D236" s="10"/>
-      <c r="N236" s="10"/>
+      <c r="D236" s="8"/>
+      <c r="N236" s="8"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D237" s="10"/>
-      <c r="N237" s="10"/>
+      <c r="D237" s="8"/>
+      <c r="N237" s="8"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D238" s="10"/>
-      <c r="N238" s="10"/>
+      <c r="D238" s="8"/>
+      <c r="N238" s="8"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D239" s="10"/>
-      <c r="N239" s="10"/>
+      <c r="D239" s="8"/>
+      <c r="N239" s="8"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D240" s="10"/>
-      <c r="N240" s="10"/>
+      <c r="D240" s="8"/>
+      <c r="N240" s="8"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D241" s="10"/>
-      <c r="N241" s="10"/>
+      <c r="D241" s="8"/>
+      <c r="N241" s="8"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D242" s="10"/>
-      <c r="N242" s="10"/>
+      <c r="D242" s="8"/>
+      <c r="N242" s="8"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D243" s="10"/>
-      <c r="N243" s="10"/>
+      <c r="D243" s="8"/>
+      <c r="N243" s="8"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D244" s="10"/>
-      <c r="N244" s="10"/>
+      <c r="D244" s="8"/>
+      <c r="N244" s="8"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D245" s="10"/>
-      <c r="N245" s="10"/>
+      <c r="D245" s="8"/>
+      <c r="N245" s="8"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D246" s="10"/>
-      <c r="N246" s="10"/>
+      <c r="D246" s="8"/>
+      <c r="N246" s="8"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D247" s="10"/>
-      <c r="N247" s="10"/>
+      <c r="D247" s="8"/>
+      <c r="N247" s="8"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D248" s="10"/>
-      <c r="N248" s="10"/>
+      <c r="D248" s="8"/>
+      <c r="N248" s="8"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D249" s="10"/>
-      <c r="N249" s="10"/>
+      <c r="D249" s="8"/>
+      <c r="N249" s="8"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D250" s="10"/>
-      <c r="N250" s="10"/>
+      <c r="D250" s="8"/>
+      <c r="N250" s="8"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D251" s="10"/>
-      <c r="N251" s="10"/>
+      <c r="D251" s="8"/>
+      <c r="N251" s="8"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D252" s="10"/>
-      <c r="N252" s="10"/>
+      <c r="D252" s="8"/>
+      <c r="N252" s="8"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D253" s="10"/>
-      <c r="N253" s="10"/>
+      <c r="D253" s="8"/>
+      <c r="N253" s="8"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D254" s="10"/>
-      <c r="N254" s="10"/>
+      <c r="D254" s="8"/>
+      <c r="N254" s="8"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D255" s="10"/>
-      <c r="N255" s="10"/>
+      <c r="D255" s="8"/>
+      <c r="N255" s="8"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D256" s="10"/>
-      <c r="N256" s="10"/>
+      <c r="D256" s="8"/>
+      <c r="N256" s="8"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D257" s="10"/>
-      <c r="N257" s="10"/>
+      <c r="D257" s="8"/>
+      <c r="N257" s="8"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D258" s="10"/>
-      <c r="N258" s="10"/>
+      <c r="D258" s="8"/>
+      <c r="N258" s="8"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D259" s="10"/>
-      <c r="N259" s="10"/>
+      <c r="D259" s="8"/>
+      <c r="N259" s="8"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D260" s="10"/>
-      <c r="N260" s="10"/>
+      <c r="D260" s="8"/>
+      <c r="N260" s="8"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D261" s="10"/>
-      <c r="N261" s="10"/>
+      <c r="D261" s="8"/>
+      <c r="N261" s="8"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D262" s="10"/>
-      <c r="N262" s="10"/>
+      <c r="D262" s="8"/>
+      <c r="N262" s="8"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D263" s="10"/>
-      <c r="N263" s="10"/>
+      <c r="D263" s="8"/>
+      <c r="N263" s="8"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D264" s="10"/>
-      <c r="N264" s="10"/>
+      <c r="D264" s="8"/>
+      <c r="N264" s="8"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D265" s="10"/>
-      <c r="N265" s="10"/>
+      <c r="D265" s="8"/>
+      <c r="N265" s="8"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D266" s="10"/>
-      <c r="N266" s="10"/>
+      <c r="D266" s="8"/>
+      <c r="N266" s="8"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D267" s="10"/>
-      <c r="N267" s="10"/>
+      <c r="D267" s="8"/>
+      <c r="N267" s="8"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D268" s="10"/>
-      <c r="N268" s="10"/>
+      <c r="D268" s="8"/>
+      <c r="N268" s="8"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D269" s="10"/>
-      <c r="N269" s="10"/>
+      <c r="D269" s="8"/>
+      <c r="N269" s="8"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D270" s="10"/>
-      <c r="N270" s="10"/>
+      <c r="D270" s="8"/>
+      <c r="N270" s="8"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D271" s="10"/>
-      <c r="N271" s="10"/>
+      <c r="D271" s="8"/>
+      <c r="N271" s="8"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D272" s="10"/>
-      <c r="N272" s="10"/>
+      <c r="D272" s="8"/>
+      <c r="N272" s="8"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D273" s="10"/>
-      <c r="N273" s="10"/>
+      <c r="D273" s="8"/>
+      <c r="N273" s="8"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D274" s="10"/>
-      <c r="N274" s="10"/>
+      <c r="D274" s="8"/>
+      <c r="N274" s="8"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D275" s="10"/>
-      <c r="N275" s="10"/>
+      <c r="D275" s="8"/>
+      <c r="N275" s="8"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D276" s="10"/>
-      <c r="N276" s="10"/>
+      <c r="D276" s="8"/>
+      <c r="N276" s="8"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D277" s="10"/>
-      <c r="N277" s="10"/>
+      <c r="D277" s="8"/>
+      <c r="N277" s="8"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D278" s="10"/>
-      <c r="N278" s="10"/>
+      <c r="D278" s="8"/>
+      <c r="N278" s="8"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D279" s="10"/>
-      <c r="N279" s="10"/>
+      <c r="D279" s="8"/>
+      <c r="N279" s="8"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D280" s="10"/>
-      <c r="N280" s="10"/>
+      <c r="D280" s="8"/>
+      <c r="N280" s="8"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D281" s="10"/>
-      <c r="N281" s="10"/>
+      <c r="D281" s="8"/>
+      <c r="N281" s="8"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D282" s="10"/>
-      <c r="N282" s="10"/>
+      <c r="D282" s="8"/>
+      <c r="N282" s="8"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D283" s="10"/>
-      <c r="N283" s="10"/>
+      <c r="D283" s="8"/>
+      <c r="N283" s="8"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D284" s="10"/>
-      <c r="N284" s="10"/>
+      <c r="D284" s="8"/>
+      <c r="N284" s="8"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D285" s="10"/>
-      <c r="N285" s="10"/>
+      <c r="D285" s="8"/>
+      <c r="N285" s="8"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D286" s="10"/>
-      <c r="N286" s="10"/>
+      <c r="D286" s="8"/>
+      <c r="N286" s="8"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D287" s="10"/>
-      <c r="N287" s="10"/>
+      <c r="D287" s="8"/>
+      <c r="N287" s="8"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D288" s="10"/>
-      <c r="N288" s="10"/>
+      <c r="D288" s="8"/>
+      <c r="N288" s="8"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D289" s="10"/>
-      <c r="N289" s="10"/>
+      <c r="D289" s="8"/>
+      <c r="N289" s="8"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D290" s="10"/>
-      <c r="N290" s="10"/>
+      <c r="D290" s="8"/>
+      <c r="N290" s="8"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D291" s="10"/>
-      <c r="N291" s="10"/>
+      <c r="D291" s="8"/>
+      <c r="N291" s="8"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D292" s="10"/>
-      <c r="N292" s="10"/>
+      <c r="D292" s="8"/>
+      <c r="N292" s="8"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D293" s="10"/>
-      <c r="N293" s="10"/>
+      <c r="D293" s="8"/>
+      <c r="N293" s="8"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D294" s="10"/>
-      <c r="N294" s="10"/>
+      <c r="D294" s="8"/>
+      <c r="N294" s="8"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D295" s="10"/>
-      <c r="N295" s="10"/>
+      <c r="D295" s="8"/>
+      <c r="N295" s="8"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D296" s="10"/>
-      <c r="N296" s="10"/>
+      <c r="D296" s="8"/>
+      <c r="N296" s="8"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D297" s="10"/>
-      <c r="N297" s="10"/>
+      <c r="D297" s="8"/>
+      <c r="N297" s="8"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D298" s="10"/>
-      <c r="N298" s="10"/>
+      <c r="D298" s="8"/>
+      <c r="N298" s="8"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D299" s="10"/>
-      <c r="N299" s="10"/>
+      <c r="D299" s="8"/>
+      <c r="N299" s="8"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D300" s="10"/>
-      <c r="N300" s="10"/>
+      <c r="D300" s="8"/>
+      <c r="N300" s="8"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D301" s="10"/>
-      <c r="N301" s="10"/>
+      <c r="D301" s="8"/>
+      <c r="N301" s="8"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D302" s="10"/>
-      <c r="N302" s="10"/>
+      <c r="D302" s="8"/>
+      <c r="N302" s="8"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D303" s="10"/>
-      <c r="N303" s="10"/>
+      <c r="D303" s="8"/>
+      <c r="N303" s="8"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D304" s="10"/>
-      <c r="N304" s="10"/>
+      <c r="D304" s="8"/>
+      <c r="N304" s="8"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D305" s="10"/>
-      <c r="N305" s="10"/>
+      <c r="D305" s="8"/>
+      <c r="N305" s="8"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D306" s="10"/>
-      <c r="N306" s="10"/>
+      <c r="D306" s="8"/>
+      <c r="N306" s="8"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D307" s="10"/>
-      <c r="N307" s="10"/>
+      <c r="D307" s="8"/>
+      <c r="N307" s="8"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D308" s="10"/>
-      <c r="N308" s="10"/>
+      <c r="D308" s="8"/>
+      <c r="N308" s="8"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D309" s="10"/>
-      <c r="N309" s="10"/>
+      <c r="D309" s="8"/>
+      <c r="N309" s="8"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D310" s="10"/>
-      <c r="N310" s="10"/>
+      <c r="D310" s="8"/>
+      <c r="N310" s="8"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D311" s="10"/>
-      <c r="N311" s="10"/>
+      <c r="D311" s="8"/>
+      <c r="N311" s="8"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D312" s="10"/>
-      <c r="N312" s="10"/>
+      <c r="D312" s="8"/>
+      <c r="N312" s="8"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D313" s="10"/>
-      <c r="N313" s="10"/>
+      <c r="D313" s="8"/>
+      <c r="N313" s="8"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D314" s="10"/>
-      <c r="N314" s="10"/>
+      <c r="D314" s="8"/>
+      <c r="N314" s="8"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D315" s="10"/>
-      <c r="N315" s="10"/>
+      <c r="D315" s="8"/>
+      <c r="N315" s="8"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D316" s="10"/>
-      <c r="N316" s="10"/>
+      <c r="D316" s="8"/>
+      <c r="N316" s="8"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D317" s="10"/>
-      <c r="N317" s="10"/>
+      <c r="D317" s="8"/>
+      <c r="N317" s="8"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D318" s="10"/>
-      <c r="N318" s="10"/>
+      <c r="D318" s="8"/>
+      <c r="N318" s="8"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D319" s="10"/>
-      <c r="N319" s="10"/>
+      <c r="D319" s="8"/>
+      <c r="N319" s="8"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D320" s="10"/>
-      <c r="N320" s="10"/>
+      <c r="D320" s="8"/>
+      <c r="N320" s="8"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D321" s="10"/>
-      <c r="N321" s="10"/>
+      <c r="D321" s="8"/>
+      <c r="N321" s="8"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D322" s="10"/>
-      <c r="N322" s="10"/>
+      <c r="D322" s="8"/>
+      <c r="N322" s="8"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D323" s="10"/>
-      <c r="N323" s="10"/>
+      <c r="D323" s="8"/>
+      <c r="N323" s="8"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D324" s="10"/>
-      <c r="N324" s="10"/>
+      <c r="D324" s="8"/>
+      <c r="N324" s="8"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D325" s="10"/>
-      <c r="N325" s="10"/>
+      <c r="D325" s="8"/>
+      <c r="N325" s="8"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D326" s="10"/>
-      <c r="N326" s="10"/>
+      <c r="D326" s="8"/>
+      <c r="N326" s="8"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D327" s="10"/>
-      <c r="N327" s="10"/>
+      <c r="D327" s="8"/>
+      <c r="N327" s="8"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D328" s="10"/>
-      <c r="N328" s="10"/>
+      <c r="D328" s="8"/>
+      <c r="N328" s="8"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D329" s="10"/>
-      <c r="N329" s="10"/>
+      <c r="D329" s="8"/>
+      <c r="N329" s="8"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D330" s="10"/>
-      <c r="N330" s="10"/>
+      <c r="D330" s="8"/>
+      <c r="N330" s="8"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D331" s="10"/>
-      <c r="N331" s="10"/>
+      <c r="D331" s="8"/>
+      <c r="N331" s="8"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D332" s="10"/>
-      <c r="N332" s="10"/>
+      <c r="D332" s="8"/>
+      <c r="N332" s="8"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D333" s="10"/>
-      <c r="N333" s="10"/>
+      <c r="D333" s="8"/>
+      <c r="N333" s="8"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D334" s="10"/>
-      <c r="N334" s="10"/>
+      <c r="D334" s="8"/>
+      <c r="N334" s="8"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D335" s="10"/>
-      <c r="N335" s="10"/>
+      <c r="D335" s="8"/>
+      <c r="N335" s="8"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D336" s="10"/>
-      <c r="N336" s="10"/>
+      <c r="D336" s="8"/>
+      <c r="N336" s="8"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D337" s="10"/>
-      <c r="N337" s="10"/>
+      <c r="D337" s="8"/>
+      <c r="N337" s="8"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D338" s="10"/>
-      <c r="N338" s="10"/>
+      <c r="D338" s="8"/>
+      <c r="N338" s="8"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D339" s="10"/>
-      <c r="N339" s="10"/>
+      <c r="D339" s="8"/>
+      <c r="N339" s="8"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D340" s="10"/>
-      <c r="N340" s="10"/>
+      <c r="D340" s="8"/>
+      <c r="N340" s="8"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D341" s="10"/>
-      <c r="N341" s="10"/>
+      <c r="D341" s="8"/>
+      <c r="N341" s="8"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D342" s="10"/>
-      <c r="N342" s="10"/>
+      <c r="D342" s="8"/>
+      <c r="N342" s="8"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D343" s="10"/>
-      <c r="N343" s="10"/>
+      <c r="D343" s="8"/>
+      <c r="N343" s="8"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D344" s="10"/>
-      <c r="N344" s="10"/>
+      <c r="D344" s="8"/>
+      <c r="N344" s="8"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D345" s="10"/>
-      <c r="N345" s="10"/>
+      <c r="D345" s="8"/>
+      <c r="N345" s="8"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D346" s="10"/>
-      <c r="N346" s="10"/>
+      <c r="D346" s="8"/>
+      <c r="N346" s="8"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D347" s="10"/>
-      <c r="N347" s="10"/>
+      <c r="D347" s="8"/>
+      <c r="N347" s="8"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D348" s="10"/>
-      <c r="N348" s="10"/>
+      <c r="D348" s="8"/>
+      <c r="N348" s="8"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D349" s="10"/>
-      <c r="N349" s="10"/>
+      <c r="D349" s="8"/>
+      <c r="N349" s="8"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D350" s="10"/>
-      <c r="N350" s="10"/>
+      <c r="D350" s="8"/>
+      <c r="N350" s="8"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D351" s="10"/>
-      <c r="N351" s="10"/>
+      <c r="D351" s="8"/>
+      <c r="N351" s="8"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D352" s="10"/>
-      <c r="N352" s="10"/>
+      <c r="D352" s="8"/>
+      <c r="N352" s="8"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D353" s="10"/>
-      <c r="N353" s="10"/>
+      <c r="D353" s="8"/>
+      <c r="N353" s="8"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D354" s="10"/>
-      <c r="N354" s="10"/>
+      <c r="D354" s="8"/>
+      <c r="N354" s="8"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D355" s="10"/>
-      <c r="N355" s="10"/>
+      <c r="D355" s="8"/>
+      <c r="N355" s="8"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D356" s="10"/>
-      <c r="N356" s="10"/>
+      <c r="D356" s="8"/>
+      <c r="N356" s="8"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D357" s="10"/>
-      <c r="N357" s="10"/>
+      <c r="D357" s="8"/>
+      <c r="N357" s="8"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D358" s="10"/>
-      <c r="N358" s="10"/>
+      <c r="D358" s="8"/>
+      <c r="N358" s="8"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D359" s="10"/>
-      <c r="N359" s="10"/>
+      <c r="D359" s="8"/>
+      <c r="N359" s="8"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D360" s="10"/>
-      <c r="N360" s="10"/>
+      <c r="D360" s="8"/>
+      <c r="N360" s="8"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D361" s="10"/>
-      <c r="N361" s="10"/>
+      <c r="D361" s="8"/>
+      <c r="N361" s="8"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D362" s="10"/>
-      <c r="N362" s="10"/>
+      <c r="D362" s="8"/>
+      <c r="N362" s="8"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D363" s="10"/>
-      <c r="N363" s="10"/>
+      <c r="D363" s="8"/>
+      <c r="N363" s="8"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D364" s="10"/>
-      <c r="N364" s="10"/>
+      <c r="D364" s="8"/>
+      <c r="N364" s="8"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D365" s="10"/>
-      <c r="N365" s="10"/>
+      <c r="D365" s="8"/>
+      <c r="N365" s="8"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D366" s="10"/>
-      <c r="N366" s="10"/>
+      <c r="D366" s="8"/>
+      <c r="N366" s="8"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D367" s="10"/>
-      <c r="N367" s="10"/>
+      <c r="D367" s="8"/>
+      <c r="N367" s="8"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D368" s="10"/>
-      <c r="N368" s="10"/>
+      <c r="D368" s="8"/>
+      <c r="N368" s="8"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D369" s="10"/>
-      <c r="N369" s="10"/>
+      <c r="D369" s="8"/>
+      <c r="N369" s="8"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D370" s="10"/>
-      <c r="N370" s="10"/>
+      <c r="D370" s="8"/>
+      <c r="N370" s="8"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D371" s="10"/>
-      <c r="N371" s="10"/>
+      <c r="D371" s="8"/>
+      <c r="N371" s="8"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D372" s="10"/>
-      <c r="N372" s="10"/>
+      <c r="D372" s="8"/>
+      <c r="N372" s="8"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D373" s="10"/>
-      <c r="N373" s="10"/>
+      <c r="D373" s="8"/>
+      <c r="N373" s="8"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D374" s="10"/>
-      <c r="N374" s="10"/>
+      <c r="D374" s="8"/>
+      <c r="N374" s="8"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D375" s="10"/>
-      <c r="N375" s="10"/>
+      <c r="D375" s="8"/>
+      <c r="N375" s="8"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D376" s="10"/>
-      <c r="N376" s="10"/>
+      <c r="D376" s="8"/>
+      <c r="N376" s="8"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D377" s="10"/>
-      <c r="N377" s="10"/>
+      <c r="D377" s="8"/>
+      <c r="N377" s="8"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D378" s="10"/>
-      <c r="N378" s="10"/>
+      <c r="D378" s="8"/>
+      <c r="N378" s="8"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D379" s="10"/>
-      <c r="N379" s="10"/>
+      <c r="D379" s="8"/>
+      <c r="N379" s="8"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D380" s="10"/>
-      <c r="N380" s="10"/>
+      <c r="D380" s="8"/>
+      <c r="N380" s="8"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D381" s="10"/>
-      <c r="N381" s="10"/>
+      <c r="D381" s="8"/>
+      <c r="N381" s="8"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D382" s="10"/>
-      <c r="N382" s="10"/>
+      <c r="D382" s="8"/>
+      <c r="N382" s="8"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D383" s="10"/>
-      <c r="N383" s="10"/>
+      <c r="D383" s="8"/>
+      <c r="N383" s="8"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D384" s="10"/>
-      <c r="N384" s="10"/>
+      <c r="D384" s="8"/>
+      <c r="N384" s="8"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D385" s="10"/>
-      <c r="N385" s="10"/>
+      <c r="D385" s="8"/>
+      <c r="N385" s="8"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D386" s="10"/>
-      <c r="N386" s="10"/>
+      <c r="D386" s="8"/>
+      <c r="N386" s="8"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D387" s="10"/>
-      <c r="N387" s="10"/>
+      <c r="D387" s="8"/>
+      <c r="N387" s="8"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D388" s="10"/>
-      <c r="N388" s="10"/>
+      <c r="D388" s="8"/>
+      <c r="N388" s="8"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D389" s="10"/>
-      <c r="N389" s="10"/>
+      <c r="D389" s="8"/>
+      <c r="N389" s="8"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D390" s="10"/>
-      <c r="N390" s="10"/>
+      <c r="D390" s="8"/>
+      <c r="N390" s="8"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D391" s="10"/>
-      <c r="N391" s="10"/>
+      <c r="D391" s="8"/>
+      <c r="N391" s="8"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D392" s="10"/>
-      <c r="N392" s="10"/>
+      <c r="D392" s="8"/>
+      <c r="N392" s="8"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D393" s="10"/>
-      <c r="N393" s="10"/>
+      <c r="D393" s="8"/>
+      <c r="N393" s="8"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D394" s="10"/>
-      <c r="N394" s="10"/>
+      <c r="D394" s="8"/>
+      <c r="N394" s="8"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D395" s="10"/>
-      <c r="N395" s="10"/>
+      <c r="D395" s="8"/>
+      <c r="N395" s="8"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D396" s="10"/>
-      <c r="N396" s="10"/>
+      <c r="D396" s="8"/>
+      <c r="N396" s="8"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D397" s="10"/>
-      <c r="N397" s="10"/>
+      <c r="D397" s="8"/>
+      <c r="N397" s="8"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D398" s="10"/>
-      <c r="N398" s="10"/>
+      <c r="D398" s="8"/>
+      <c r="N398" s="8"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D399" s="10"/>
-      <c r="N399" s="10"/>
+      <c r="D399" s="8"/>
+      <c r="N399" s="8"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D400" s="10"/>
-      <c r="N400" s="10"/>
+      <c r="D400" s="8"/>
+      <c r="N400" s="8"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D401" s="10"/>
-      <c r="N401" s="10"/>
+      <c r="D401" s="8"/>
+      <c r="N401" s="8"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D402" s="10"/>
-      <c r="N402" s="10"/>
+      <c r="D402" s="8"/>
+      <c r="N402" s="8"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D403" s="10"/>
-      <c r="N403" s="10"/>
+      <c r="D403" s="8"/>
+      <c r="N403" s="8"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D404" s="10"/>
-      <c r="N404" s="10"/>
+      <c r="D404" s="8"/>
+      <c r="N404" s="8"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D405" s="10"/>
-      <c r="N405" s="10"/>
+      <c r="D405" s="8"/>
+      <c r="N405" s="8"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D406" s="10"/>
-      <c r="N406" s="10"/>
+      <c r="D406" s="8"/>
+      <c r="N406" s="8"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D407" s="10"/>
-      <c r="N407" s="10"/>
+      <c r="D407" s="8"/>
+      <c r="N407" s="8"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D408" s="10"/>
-      <c r="N408" s="10"/>
+      <c r="D408" s="8"/>
+      <c r="N408" s="8"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D409" s="10"/>
-      <c r="N409" s="10"/>
+      <c r="D409" s="8"/>
+      <c r="N409" s="8"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D410" s="10"/>
-      <c r="N410" s="10"/>
+      <c r="D410" s="8"/>
+      <c r="N410" s="8"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D411" s="10"/>
-      <c r="N411" s="10"/>
+      <c r="D411" s="8"/>
+      <c r="N411" s="8"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D412" s="10"/>
-      <c r="N412" s="10"/>
+      <c r="D412" s="8"/>
+      <c r="N412" s="8"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D413" s="10"/>
-      <c r="N413" s="10"/>
+      <c r="D413" s="8"/>
+      <c r="N413" s="8"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D414" s="10"/>
-      <c r="N414" s="10"/>
+      <c r="D414" s="8"/>
+      <c r="N414" s="8"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D415" s="10"/>
-      <c r="N415" s="10"/>
+      <c r="D415" s="8"/>
+      <c r="N415" s="8"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D416" s="10"/>
-      <c r="N416" s="10"/>
+      <c r="D416" s="8"/>
+      <c r="N416" s="8"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D417" s="10"/>
-      <c r="N417" s="10"/>
+      <c r="D417" s="8"/>
+      <c r="N417" s="8"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D418" s="10"/>
-      <c r="N418" s="10"/>
+      <c r="D418" s="8"/>
+      <c r="N418" s="8"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D419" s="10"/>
-      <c r="N419" s="10"/>
+      <c r="D419" s="8"/>
+      <c r="N419" s="8"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D420" s="10"/>
-      <c r="N420" s="10"/>
+      <c r="D420" s="8"/>
+      <c r="N420" s="8"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D421" s="10"/>
-      <c r="N421" s="10"/>
+      <c r="D421" s="8"/>
+      <c r="N421" s="8"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D422" s="10"/>
-      <c r="N422" s="10"/>
+      <c r="D422" s="8"/>
+      <c r="N422" s="8"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D423" s="10"/>
-      <c r="N423" s="10"/>
+      <c r="D423" s="8"/>
+      <c r="N423" s="8"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D424" s="10"/>
-      <c r="N424" s="10"/>
+      <c r="D424" s="8"/>
+      <c r="N424" s="8"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D425" s="10"/>
-      <c r="N425" s="10"/>
+      <c r="D425" s="8"/>
+      <c r="N425" s="8"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D426" s="10"/>
-      <c r="N426" s="10"/>
+      <c r="D426" s="8"/>
+      <c r="N426" s="8"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D427" s="10"/>
-      <c r="N427" s="10"/>
+      <c r="D427" s="8"/>
+      <c r="N427" s="8"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D428" s="10"/>
-      <c r="N428" s="10"/>
+      <c r="D428" s="8"/>
+      <c r="N428" s="8"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D429" s="10"/>
-      <c r="N429" s="10"/>
+      <c r="D429" s="8"/>
+      <c r="N429" s="8"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D430" s="10"/>
-      <c r="N430" s="10"/>
+      <c r="D430" s="8"/>
+      <c r="N430" s="8"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D431" s="10"/>
-      <c r="N431" s="10"/>
+      <c r="D431" s="8"/>
+      <c r="N431" s="8"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D432" s="10"/>
-      <c r="N432" s="10"/>
+      <c r="D432" s="8"/>
+      <c r="N432" s="8"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D433" s="10"/>
-      <c r="N433" s="10"/>
+      <c r="D433" s="8"/>
+      <c r="N433" s="8"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D434" s="10"/>
-      <c r="N434" s="10"/>
+      <c r="D434" s="8"/>
+      <c r="N434" s="8"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D435" s="10"/>
-      <c r="N435" s="10"/>
+      <c r="D435" s="8"/>
+      <c r="N435" s="8"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D436" s="10"/>
-      <c r="N436" s="10"/>
+      <c r="D436" s="8"/>
+      <c r="N436" s="8"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D437" s="10"/>
-      <c r="N437" s="10"/>
+      <c r="D437" s="8"/>
+      <c r="N437" s="8"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D438" s="10"/>
-      <c r="N438" s="10"/>
+      <c r="D438" s="8"/>
+      <c r="N438" s="8"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D439" s="10"/>
-      <c r="N439" s="10"/>
+      <c r="D439" s="8"/>
+      <c r="N439" s="8"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D440" s="10"/>
-      <c r="N440" s="10"/>
+      <c r="D440" s="8"/>
+      <c r="N440" s="8"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D441" s="10"/>
-      <c r="N441" s="10"/>
+      <c r="D441" s="8"/>
+      <c r="N441" s="8"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D442" s="10"/>
-      <c r="N442" s="10"/>
+      <c r="D442" s="8"/>
+      <c r="N442" s="8"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D443" s="10"/>
-      <c r="N443" s="10"/>
+      <c r="D443" s="8"/>
+      <c r="N443" s="8"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D444" s="10"/>
-      <c r="N444" s="10"/>
+      <c r="D444" s="8"/>
+      <c r="N444" s="8"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D445" s="10"/>
-      <c r="N445" s="10"/>
+      <c r="D445" s="8"/>
+      <c r="N445" s="8"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D446" s="10"/>
-      <c r="N446" s="10"/>
+      <c r="D446" s="8"/>
+      <c r="N446" s="8"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D447" s="10"/>
-      <c r="N447" s="10"/>
+      <c r="D447" s="8"/>
+      <c r="N447" s="8"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D448" s="10"/>
-      <c r="N448" s="10"/>
+      <c r="D448" s="8"/>
+      <c r="N448" s="8"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D449" s="10"/>
-      <c r="N449" s="10"/>
+      <c r="D449" s="8"/>
+      <c r="N449" s="8"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D450" s="10"/>
-      <c r="N450" s="10"/>
+      <c r="D450" s="8"/>
+      <c r="N450" s="8"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D451" s="10"/>
-      <c r="N451" s="10"/>
+      <c r="D451" s="8"/>
+      <c r="N451" s="8"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D452" s="10"/>
-      <c r="N452" s="10"/>
+      <c r="D452" s="8"/>
+      <c r="N452" s="8"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D453" s="10"/>
-      <c r="N453" s="10"/>
+      <c r="D453" s="8"/>
+      <c r="N453" s="8"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D454" s="10"/>
-      <c r="N454" s="10"/>
+      <c r="D454" s="8"/>
+      <c r="N454" s="8"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D455" s="10"/>
-      <c r="N455" s="10"/>
+      <c r="D455" s="8"/>
+      <c r="N455" s="8"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D456" s="10"/>
-      <c r="N456" s="10"/>
+      <c r="D456" s="8"/>
+      <c r="N456" s="8"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D457" s="10"/>
-      <c r="N457" s="10"/>
+      <c r="D457" s="8"/>
+      <c r="N457" s="8"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D458" s="10"/>
-      <c r="N458" s="10"/>
+      <c r="D458" s="8"/>
+      <c r="N458" s="8"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D459" s="10"/>
-      <c r="N459" s="10"/>
+      <c r="D459" s="8"/>
+      <c r="N459" s="8"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D460" s="10"/>
-      <c r="N460" s="10"/>
+      <c r="D460" s="8"/>
+      <c r="N460" s="8"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D461" s="10"/>
-      <c r="N461" s="10"/>
+      <c r="D461" s="8"/>
+      <c r="N461" s="8"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D462" s="10"/>
-      <c r="N462" s="10"/>
+      <c r="D462" s="8"/>
+      <c r="N462" s="8"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D463" s="10"/>
-      <c r="N463" s="10"/>
+      <c r="D463" s="8"/>
+      <c r="N463" s="8"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D464" s="10"/>
-      <c r="N464" s="10"/>
+      <c r="D464" s="8"/>
+      <c r="N464" s="8"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D465" s="10"/>
-      <c r="N465" s="10"/>
+      <c r="D465" s="8"/>
+      <c r="N465" s="8"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D466" s="10"/>
-      <c r="N466" s="10"/>
+      <c r="D466" s="8"/>
+      <c r="N466" s="8"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D467" s="10"/>
-      <c r="N467" s="10"/>
+      <c r="D467" s="8"/>
+      <c r="N467" s="8"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D468" s="10"/>
-      <c r="N468" s="10"/>
+      <c r="D468" s="8"/>
+      <c r="N468" s="8"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D469" s="10"/>
-      <c r="N469" s="10"/>
+      <c r="D469" s="8"/>
+      <c r="N469" s="8"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D470" s="10"/>
-      <c r="N470" s="10"/>
+      <c r="D470" s="8"/>
+      <c r="N470" s="8"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D471" s="10"/>
-      <c r="N471" s="10"/>
+      <c r="D471" s="8"/>
+      <c r="N471" s="8"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D472" s="10"/>
-      <c r="N472" s="10"/>
+      <c r="D472" s="8"/>
+      <c r="N472" s="8"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D473" s="10"/>
-      <c r="N473" s="10"/>
+      <c r="D473" s="8"/>
+      <c r="N473" s="8"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D474" s="10"/>
-      <c r="N474" s="10"/>
+      <c r="D474" s="8"/>
+      <c r="N474" s="8"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D475" s="10"/>
-      <c r="N475" s="10"/>
+      <c r="D475" s="8"/>
+      <c r="N475" s="8"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D476" s="10"/>
-      <c r="N476" s="10"/>
+      <c r="D476" s="8"/>
+      <c r="N476" s="8"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D477" s="10"/>
-      <c r="N477" s="10"/>
+      <c r="D477" s="8"/>
+      <c r="N477" s="8"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D478" s="10"/>
-      <c r="N478" s="10"/>
+      <c r="D478" s="8"/>
+      <c r="N478" s="8"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D479" s="10"/>
-      <c r="N479" s="10"/>
+      <c r="D479" s="8"/>
+      <c r="N479" s="8"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D480" s="10"/>
-      <c r="N480" s="10"/>
+      <c r="D480" s="8"/>
+      <c r="N480" s="8"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D481" s="10"/>
-      <c r="N481" s="10"/>
+      <c r="D481" s="8"/>
+      <c r="N481" s="8"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D482" s="10"/>
-      <c r="N482" s="10"/>
+      <c r="D482" s="8"/>
+      <c r="N482" s="8"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D483" s="10"/>
-      <c r="N483" s="10"/>
+      <c r="D483" s="8"/>
+      <c r="N483" s="8"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D484" s="10"/>
-      <c r="N484" s="10"/>
+      <c r="D484" s="8"/>
+      <c r="N484" s="8"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D485" s="10"/>
-      <c r="N485" s="10"/>
+      <c r="D485" s="8"/>
+      <c r="N485" s="8"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D486" s="10"/>
-      <c r="N486" s="10"/>
+      <c r="D486" s="8"/>
+      <c r="N486" s="8"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D487" s="10"/>
-      <c r="N487" s="10"/>
+      <c r="D487" s="8"/>
+      <c r="N487" s="8"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D488" s="10"/>
-      <c r="N488" s="10"/>
+      <c r="D488" s="8"/>
+      <c r="N488" s="8"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D489" s="10"/>
-      <c r="N489" s="10"/>
+      <c r="D489" s="8"/>
+      <c r="N489" s="8"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D490" s="10"/>
-      <c r="N490" s="10"/>
+      <c r="D490" s="8"/>
+      <c r="N490" s="8"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D491" s="10"/>
-      <c r="N491" s="10"/>
+      <c r="D491" s="8"/>
+      <c r="N491" s="8"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D492" s="10"/>
-      <c r="N492" s="10"/>
+      <c r="D492" s="8"/>
+      <c r="N492" s="8"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D493" s="10"/>
-      <c r="N493" s="10"/>
+      <c r="D493" s="8"/>
+      <c r="N493" s="8"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D494" s="10"/>
-      <c r="N494" s="10"/>
+      <c r="D494" s="8"/>
+      <c r="N494" s="8"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D495" s="10"/>
-      <c r="N495" s="10"/>
+      <c r="D495" s="8"/>
+      <c r="N495" s="8"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D496" s="10"/>
-      <c r="N496" s="10"/>
+      <c r="D496" s="8"/>
+      <c r="N496" s="8"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D497" s="10"/>
-      <c r="N497" s="10"/>
+      <c r="D497" s="8"/>
+      <c r="N497" s="8"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D498" s="10"/>
-      <c r="N498" s="10"/>
+      <c r="D498" s="8"/>
+      <c r="N498" s="8"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D499" s="10"/>
-      <c r="N499" s="10"/>
+      <c r="D499" s="8"/>
+      <c r="N499" s="8"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D500" s="10"/>
-      <c r="N500" s="10"/>
+      <c r="D500" s="8"/>
+      <c r="N500" s="8"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D501" s="10"/>
-      <c r="N501" s="10"/>
+      <c r="D501" s="8"/>
+      <c r="N501" s="8"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D502" s="10"/>
-      <c r="N502" s="10"/>
+      <c r="D502" s="8"/>
+      <c r="N502" s="8"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D503" s="10"/>
-      <c r="N503" s="10"/>
+      <c r="D503" s="8"/>
+      <c r="N503" s="8"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D504" s="10"/>
-      <c r="N504" s="10"/>
+      <c r="D504" s="8"/>
+      <c r="N504" s="8"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D505" s="10"/>
-      <c r="N505" s="10"/>
+      <c r="D505" s="8"/>
+      <c r="N505" s="8"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D506" s="10"/>
-      <c r="N506" s="10"/>
+      <c r="D506" s="8"/>
+      <c r="N506" s="8"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D507" s="10"/>
-      <c r="N507" s="10"/>
+      <c r="D507" s="8"/>
+      <c r="N507" s="8"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D508" s="10"/>
-      <c r="N508" s="10"/>
+      <c r="D508" s="8"/>
+      <c r="N508" s="8"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D509" s="10"/>
-      <c r="N509" s="10"/>
+      <c r="D509" s="8"/>
+      <c r="N509" s="8"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D510" s="10"/>
-      <c r="N510" s="10"/>
+      <c r="D510" s="8"/>
+      <c r="N510" s="8"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D511" s="10"/>
-      <c r="N511" s="10"/>
+      <c r="D511" s="8"/>
+      <c r="N511" s="8"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D512" s="10"/>
-      <c r="N512" s="10"/>
+      <c r="D512" s="8"/>
+      <c r="N512" s="8"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D513" s="10"/>
-      <c r="N513" s="10"/>
+      <c r="D513" s="8"/>
+      <c r="N513" s="8"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D514" s="10"/>
-      <c r="N514" s="10"/>
+      <c r="D514" s="8"/>
+      <c r="N514" s="8"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D515" s="10"/>
-      <c r="N515" s="10"/>
+      <c r="D515" s="8"/>
+      <c r="N515" s="8"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D516" s="10"/>
-      <c r="N516" s="10"/>
+      <c r="D516" s="8"/>
+      <c r="N516" s="8"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D517" s="10"/>
-      <c r="N517" s="10"/>
+      <c r="D517" s="8"/>
+      <c r="N517" s="8"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D518" s="10"/>
-      <c r="N518" s="10"/>
+      <c r="D518" s="8"/>
+      <c r="N518" s="8"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D519" s="10"/>
-      <c r="N519" s="10"/>
+      <c r="D519" s="8"/>
+      <c r="N519" s="8"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D520" s="10"/>
-      <c r="N520" s="10"/>
+      <c r="D520" s="8"/>
+      <c r="N520" s="8"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D521" s="10"/>
-      <c r="N521" s="10"/>
+      <c r="D521" s="8"/>
+      <c r="N521" s="8"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D522" s="10"/>
-      <c r="N522" s="10"/>
+      <c r="D522" s="8"/>
+      <c r="N522" s="8"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D523" s="10"/>
-      <c r="N523" s="10"/>
+      <c r="D523" s="8"/>
+      <c r="N523" s="8"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D524" s="10"/>
-      <c r="N524" s="10"/>
+      <c r="D524" s="8"/>
+      <c r="N524" s="8"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D525" s="10"/>
-      <c r="N525" s="10"/>
+      <c r="D525" s="8"/>
+      <c r="N525" s="8"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D526" s="10"/>
-      <c r="N526" s="10"/>
+      <c r="D526" s="8"/>
+      <c r="N526" s="8"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D527" s="10"/>
-      <c r="N527" s="10"/>
+      <c r="D527" s="8"/>
+      <c r="N527" s="8"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D528" s="10"/>
-      <c r="N528" s="10"/>
+      <c r="D528" s="8"/>
+      <c r="N528" s="8"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D529" s="10"/>
-      <c r="N529" s="10"/>
+      <c r="D529" s="8"/>
+      <c r="N529" s="8"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D530" s="10"/>
-      <c r="N530" s="10"/>
+      <c r="D530" s="8"/>
+      <c r="N530" s="8"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D531" s="10"/>
-      <c r="N531" s="10"/>
+      <c r="D531" s="8"/>
+      <c r="N531" s="8"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D532" s="10"/>
-      <c r="N532" s="10"/>
+      <c r="D532" s="8"/>
+      <c r="N532" s="8"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D533" s="10"/>
-      <c r="N533" s="10"/>
+      <c r="D533" s="8"/>
+      <c r="N533" s="8"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D534" s="10"/>
-      <c r="N534" s="10"/>
+      <c r="D534" s="8"/>
+      <c r="N534" s="8"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D535" s="10"/>
-      <c r="N535" s="10"/>
+      <c r="D535" s="8"/>
+      <c r="N535" s="8"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D536" s="10"/>
-      <c r="N536" s="10"/>
+      <c r="D536" s="8"/>
+      <c r="N536" s="8"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D537" s="10"/>
-      <c r="N537" s="10"/>
+      <c r="D537" s="8"/>
+      <c r="N537" s="8"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D538" s="10"/>
-      <c r="N538" s="10"/>
+      <c r="D538" s="8"/>
+      <c r="N538" s="8"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D539" s="10"/>
-      <c r="N539" s="10"/>
+      <c r="D539" s="8"/>
+      <c r="N539" s="8"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D540" s="10"/>
-      <c r="N540" s="10"/>
+      <c r="D540" s="8"/>
+      <c r="N540" s="8"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D541" s="10"/>
-      <c r="N541" s="10"/>
+      <c r="D541" s="8"/>
+      <c r="N541" s="8"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D542" s="10"/>
-      <c r="N542" s="10"/>
+      <c r="D542" s="8"/>
+      <c r="N542" s="8"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D543" s="10"/>
-      <c r="N543" s="10"/>
+      <c r="D543" s="8"/>
+      <c r="N543" s="8"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D544" s="10"/>
-      <c r="N544" s="10"/>
+      <c r="D544" s="8"/>
+      <c r="N544" s="8"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D545" s="10"/>
-      <c r="N545" s="10"/>
+      <c r="D545" s="8"/>
+      <c r="N545" s="8"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D546" s="10"/>
-      <c r="N546" s="10"/>
+      <c r="D546" s="8"/>
+      <c r="N546" s="8"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D547" s="10"/>
-      <c r="N547" s="10"/>
+      <c r="D547" s="8"/>
+      <c r="N547" s="8"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D548" s="10"/>
-      <c r="N548" s="10"/>
+      <c r="D548" s="8"/>
+      <c r="N548" s="8"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D549" s="10"/>
-      <c r="N549" s="10"/>
+      <c r="D549" s="8"/>
+      <c r="N549" s="8"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D550" s="10"/>
-      <c r="N550" s="10"/>
+      <c r="D550" s="8"/>
+      <c r="N550" s="8"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D551" s="10"/>
-      <c r="N551" s="10"/>
+      <c r="D551" s="8"/>
+      <c r="N551" s="8"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D552" s="10"/>
-      <c r="N552" s="10"/>
+      <c r="D552" s="8"/>
+      <c r="N552" s="8"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D553" s="10"/>
-      <c r="N553" s="10"/>
+      <c r="D553" s="8"/>
+      <c r="N553" s="8"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D554" s="10"/>
-      <c r="N554" s="10"/>
+      <c r="D554" s="8"/>
+      <c r="N554" s="8"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D555" s="10"/>
-      <c r="N555" s="10"/>
+      <c r="D555" s="8"/>
+      <c r="N555" s="8"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D556" s="10"/>
-      <c r="N556" s="10"/>
+      <c r="D556" s="8"/>
+      <c r="N556" s="8"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D557" s="10"/>
-      <c r="N557" s="10"/>
+      <c r="D557" s="8"/>
+      <c r="N557" s="8"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D558" s="10"/>
-      <c r="N558" s="10"/>
+      <c r="D558" s="8"/>
+      <c r="N558" s="8"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D559" s="10"/>
-      <c r="N559" s="10"/>
+      <c r="D559" s="8"/>
+      <c r="N559" s="8"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D560" s="10"/>
-      <c r="N560" s="10"/>
+      <c r="D560" s="8"/>
+      <c r="N560" s="8"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D561" s="10"/>
-      <c r="N561" s="10"/>
+      <c r="D561" s="8"/>
+      <c r="N561" s="8"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D562" s="10"/>
-      <c r="N562" s="10"/>
+      <c r="D562" s="8"/>
+      <c r="N562" s="8"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D563" s="10"/>
-      <c r="N563" s="10"/>
+      <c r="D563" s="8"/>
+      <c r="N563" s="8"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D564" s="10"/>
-      <c r="N564" s="10"/>
+      <c r="D564" s="8"/>
+      <c r="N564" s="8"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D565" s="10"/>
-      <c r="N565" s="10"/>
+      <c r="D565" s="8"/>
+      <c r="N565" s="8"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D566" s="10"/>
-      <c r="N566" s="10"/>
+      <c r="D566" s="8"/>
+      <c r="N566" s="8"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D567" s="10"/>
-      <c r="N567" s="10"/>
+      <c r="D567" s="8"/>
+      <c r="N567" s="8"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D568" s="10"/>
-      <c r="N568" s="10"/>
+      <c r="D568" s="8"/>
+      <c r="N568" s="8"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D569" s="10"/>
-      <c r="N569" s="10"/>
+      <c r="D569" s="8"/>
+      <c r="N569" s="8"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D570" s="10"/>
-      <c r="N570" s="10"/>
+      <c r="D570" s="8"/>
+      <c r="N570" s="8"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D571" s="10"/>
-      <c r="N571" s="10"/>
+      <c r="D571" s="8"/>
+      <c r="N571" s="8"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D572" s="10"/>
-      <c r="N572" s="10"/>
+      <c r="D572" s="8"/>
+      <c r="N572" s="8"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D573" s="10"/>
-      <c r="N573" s="10"/>
+      <c r="D573" s="8"/>
+      <c r="N573" s="8"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D574" s="10"/>
-      <c r="N574" s="10"/>
+      <c r="D574" s="8"/>
+      <c r="N574" s="8"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D575" s="10"/>
-      <c r="N575" s="10"/>
+      <c r="D575" s="8"/>
+      <c r="N575" s="8"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D576" s="10"/>
-      <c r="N576" s="10"/>
+      <c r="D576" s="8"/>
+      <c r="N576" s="8"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D577" s="10"/>
-      <c r="N577" s="10"/>
+      <c r="D577" s="8"/>
+      <c r="N577" s="8"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D578" s="10"/>
-      <c r="N578" s="10"/>
+      <c r="D578" s="8"/>
+      <c r="N578" s="8"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D579" s="10"/>
-      <c r="N579" s="10"/>
+      <c r="D579" s="8"/>
+      <c r="N579" s="8"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D580" s="10"/>
-      <c r="N580" s="10"/>
+      <c r="D580" s="8"/>
+      <c r="N580" s="8"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D581" s="10"/>
-      <c r="N581" s="10"/>
+      <c r="D581" s="8"/>
+      <c r="N581" s="8"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D582" s="10"/>
-      <c r="N582" s="10"/>
+      <c r="D582" s="8"/>
+      <c r="N582" s="8"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D583" s="10"/>
-      <c r="N583" s="10"/>
+      <c r="D583" s="8"/>
+      <c r="N583" s="8"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D584" s="10"/>
-      <c r="N584" s="10"/>
+      <c r="D584" s="8"/>
+      <c r="N584" s="8"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D585" s="10"/>
-      <c r="N585" s="10"/>
+      <c r="D585" s="8"/>
+      <c r="N585" s="8"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D586" s="10"/>
-      <c r="N586" s="10"/>
+      <c r="D586" s="8"/>
+      <c r="N586" s="8"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D587" s="10"/>
-      <c r="N587" s="10"/>
+      <c r="D587" s="8"/>
+      <c r="N587" s="8"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D588" s="10"/>
-      <c r="N588" s="10"/>
+      <c r="D588" s="8"/>
+      <c r="N588" s="8"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D589" s="10"/>
-      <c r="N589" s="10"/>
+      <c r="D589" s="8"/>
+      <c r="N589" s="8"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D590" s="10"/>
-      <c r="N590" s="10"/>
+      <c r="D590" s="8"/>
+      <c r="N590" s="8"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D591" s="10"/>
-      <c r="N591" s="10"/>
+      <c r="D591" s="8"/>
+      <c r="N591" s="8"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D592" s="10"/>
-      <c r="N592" s="10"/>
+      <c r="D592" s="8"/>
+      <c r="N592" s="8"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D593" s="10"/>
-      <c r="N593" s="10"/>
+      <c r="D593" s="8"/>
+      <c r="N593" s="8"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D594" s="10"/>
-      <c r="N594" s="10"/>
+      <c r="D594" s="8"/>
+      <c r="N594" s="8"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D595" s="10"/>
-      <c r="N595" s="10"/>
+      <c r="D595" s="8"/>
+      <c r="N595" s="8"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D596" s="10"/>
-      <c r="N596" s="10"/>
+      <c r="D596" s="8"/>
+      <c r="N596" s="8"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D597" s="10"/>
-      <c r="N597" s="10"/>
+      <c r="D597" s="8"/>
+      <c r="N597" s="8"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D598" s="10"/>
-      <c r="N598" s="10"/>
+      <c r="D598" s="8"/>
+      <c r="N598" s="8"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D599" s="10"/>
-      <c r="N599" s="10"/>
+      <c r="D599" s="8"/>
+      <c r="N599" s="8"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D600" s="10"/>
-      <c r="N600" s="10"/>
+      <c r="D600" s="8"/>
+      <c r="N600" s="8"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D601" s="10"/>
-      <c r="N601" s="10"/>
+      <c r="D601" s="8"/>
+      <c r="N601" s="8"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D602" s="10"/>
-      <c r="N602" s="10"/>
+      <c r="D602" s="8"/>
+      <c r="N602" s="8"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D603" s="10"/>
-      <c r="N603" s="10"/>
+      <c r="D603" s="8"/>
+      <c r="N603" s="8"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D604" s="10"/>
-      <c r="N604" s="10"/>
+      <c r="D604" s="8"/>
+      <c r="N604" s="8"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D605" s="10"/>
-      <c r="N605" s="10"/>
+      <c r="D605" s="8"/>
+      <c r="N605" s="8"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D606" s="10"/>
-      <c r="N606" s="10"/>
+      <c r="D606" s="8"/>
+      <c r="N606" s="8"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D607" s="10"/>
-      <c r="N607" s="10"/>
+      <c r="D607" s="8"/>
+      <c r="N607" s="8"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D608" s="10"/>
-      <c r="N608" s="10"/>
+      <c r="D608" s="8"/>
+      <c r="N608" s="8"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D609" s="10"/>
-      <c r="N609" s="10"/>
+      <c r="D609" s="8"/>
+      <c r="N609" s="8"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D610" s="10"/>
-      <c r="N610" s="10"/>
+      <c r="D610" s="8"/>
+      <c r="N610" s="8"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D611" s="10"/>
-      <c r="N611" s="10"/>
+      <c r="D611" s="8"/>
+      <c r="N611" s="8"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D612" s="10"/>
-      <c r="N612" s="10"/>
+      <c r="D612" s="8"/>
+      <c r="N612" s="8"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D613" s="10"/>
-      <c r="N613" s="10"/>
+      <c r="D613" s="8"/>
+      <c r="N613" s="8"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D614" s="10"/>
-      <c r="N614" s="10"/>
+      <c r="D614" s="8"/>
+      <c r="N614" s="8"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D615" s="10"/>
-      <c r="N615" s="10"/>
+      <c r="D615" s="8"/>
+      <c r="N615" s="8"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D616" s="10"/>
-      <c r="N616" s="10"/>
+      <c r="D616" s="8"/>
+      <c r="N616" s="8"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D617" s="10"/>
-      <c r="N617" s="10"/>
+      <c r="D617" s="8"/>
+      <c r="N617" s="8"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D618" s="10"/>
-      <c r="N618" s="10"/>
+      <c r="D618" s="8"/>
+      <c r="N618" s="8"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D619" s="10"/>
-      <c r="N619" s="10"/>
+      <c r="D619" s="8"/>
+      <c r="N619" s="8"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D620" s="10"/>
-      <c r="N620" s="10"/>
+      <c r="D620" s="8"/>
+      <c r="N620" s="8"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D621" s="10"/>
-      <c r="N621" s="10"/>
+      <c r="D621" s="8"/>
+      <c r="N621" s="8"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D622" s="10"/>
-      <c r="N622" s="10"/>
+      <c r="D622" s="8"/>
+      <c r="N622" s="8"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D623" s="10"/>
-      <c r="N623" s="10"/>
+      <c r="D623" s="8"/>
+      <c r="N623" s="8"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D624" s="10"/>
-      <c r="N624" s="10"/>
+      <c r="D624" s="8"/>
+      <c r="N624" s="8"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D625" s="10"/>
-      <c r="N625" s="10"/>
+      <c r="D625" s="8"/>
+      <c r="N625" s="8"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D626" s="10"/>
-      <c r="N626" s="10"/>
+      <c r="D626" s="8"/>
+      <c r="N626" s="8"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D627" s="10"/>
-      <c r="N627" s="10"/>
+      <c r="D627" s="8"/>
+      <c r="N627" s="8"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D628" s="10"/>
-      <c r="N628" s="10"/>
+      <c r="D628" s="8"/>
+      <c r="N628" s="8"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D629" s="10"/>
-      <c r="N629" s="10"/>
+      <c r="D629" s="8"/>
+      <c r="N629" s="8"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D630" s="10"/>
-      <c r="N630" s="10"/>
+      <c r="D630" s="8"/>
+      <c r="N630" s="8"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D631" s="10"/>
-      <c r="N631" s="10"/>
+      <c r="D631" s="8"/>
+      <c r="N631" s="8"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D632" s="10"/>
-      <c r="N632" s="10"/>
+      <c r="D632" s="8"/>
+      <c r="N632" s="8"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D633" s="10"/>
-      <c r="N633" s="10"/>
+      <c r="D633" s="8"/>
+      <c r="N633" s="8"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D634" s="10"/>
-      <c r="N634" s="10"/>
+      <c r="D634" s="8"/>
+      <c r="N634" s="8"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D635" s="10"/>
-      <c r="N635" s="10"/>
+      <c r="D635" s="8"/>
+      <c r="N635" s="8"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D636" s="10"/>
-      <c r="N636" s="10"/>
+      <c r="D636" s="8"/>
+      <c r="N636" s="8"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D637" s="10"/>
-      <c r="N637" s="10"/>
+      <c r="D637" s="8"/>
+      <c r="N637" s="8"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D638" s="10"/>
-      <c r="N638" s="10"/>
+      <c r="D638" s="8"/>
+      <c r="N638" s="8"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D639" s="10"/>
-      <c r="N639" s="10"/>
+      <c r="D639" s="8"/>
+      <c r="N639" s="8"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D640" s="10"/>
-      <c r="N640" s="10"/>
+      <c r="D640" s="8"/>
+      <c r="N640" s="8"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D641" s="10"/>
-      <c r="N641" s="10"/>
+      <c r="D641" s="8"/>
+      <c r="N641" s="8"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D642" s="10"/>
-      <c r="N642" s="10"/>
+      <c r="D642" s="8"/>
+      <c r="N642" s="8"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D643" s="10"/>
-      <c r="N643" s="10"/>
+      <c r="D643" s="8"/>
+      <c r="N643" s="8"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D644" s="10"/>
-      <c r="N644" s="10"/>
+      <c r="D644" s="8"/>
+      <c r="N644" s="8"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D645" s="10"/>
-      <c r="N645" s="10"/>
+      <c r="D645" s="8"/>
+      <c r="N645" s="8"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D646" s="10"/>
-      <c r="N646" s="10"/>
+      <c r="D646" s="8"/>
+      <c r="N646" s="8"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D647" s="10"/>
-      <c r="N647" s="10"/>
+      <c r="D647" s="8"/>
+      <c r="N647" s="8"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D648" s="10"/>
-      <c r="N648" s="10"/>
+      <c r="D648" s="8"/>
+      <c r="N648" s="8"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D649" s="10"/>
-      <c r="N649" s="10"/>
+      <c r="D649" s="8"/>
+      <c r="N649" s="8"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D650" s="10"/>
-      <c r="N650" s="10"/>
+      <c r="D650" s="8"/>
+      <c r="N650" s="8"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D651" s="10"/>
-      <c r="N651" s="10"/>
+      <c r="D651" s="8"/>
+      <c r="N651" s="8"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D652" s="10"/>
-      <c r="N652" s="10"/>
+      <c r="D652" s="8"/>
+      <c r="N652" s="8"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D653" s="10"/>
-      <c r="N653" s="10"/>
+      <c r="D653" s="8"/>
+      <c r="N653" s="8"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D654" s="10"/>
-      <c r="N654" s="10"/>
+      <c r="D654" s="8"/>
+      <c r="N654" s="8"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D655" s="10"/>
-      <c r="N655" s="10"/>
+      <c r="D655" s="8"/>
+      <c r="N655" s="8"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D656" s="10"/>
-      <c r="N656" s="10"/>
+      <c r="D656" s="8"/>
+      <c r="N656" s="8"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D657" s="10"/>
-      <c r="N657" s="10"/>
+      <c r="D657" s="8"/>
+      <c r="N657" s="8"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D658" s="10"/>
-      <c r="N658" s="10"/>
+      <c r="D658" s="8"/>
+      <c r="N658" s="8"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D659" s="10"/>
-      <c r="N659" s="10"/>
+      <c r="D659" s="8"/>
+      <c r="N659" s="8"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D660" s="10"/>
-      <c r="N660" s="10"/>
+      <c r="D660" s="8"/>
+      <c r="N660" s="8"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D661" s="10"/>
-      <c r="N661" s="10"/>
+      <c r="D661" s="8"/>
+      <c r="N661" s="8"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D662" s="10"/>
-      <c r="N662" s="10"/>
+      <c r="D662" s="8"/>
+      <c r="N662" s="8"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D663" s="10"/>
-      <c r="N663" s="10"/>
+      <c r="D663" s="8"/>
+      <c r="N663" s="8"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D664" s="10"/>
-      <c r="N664" s="10"/>
+      <c r="D664" s="8"/>
+      <c r="N664" s="8"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D665" s="10"/>
-      <c r="N665" s="10"/>
+      <c r="D665" s="8"/>
+      <c r="N665" s="8"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D666" s="10"/>
-      <c r="N666" s="10"/>
+      <c r="D666" s="8"/>
+      <c r="N666" s="8"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D667" s="10"/>
-      <c r="N667" s="10"/>
+      <c r="D667" s="8"/>
+      <c r="N667" s="8"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D668" s="10"/>
-      <c r="N668" s="10"/>
+      <c r="D668" s="8"/>
+      <c r="N668" s="8"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D669" s="10"/>
-      <c r="N669" s="10"/>
+      <c r="D669" s="8"/>
+      <c r="N669" s="8"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D670" s="10"/>
-      <c r="N670" s="10"/>
+      <c r="D670" s="8"/>
+      <c r="N670" s="8"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D671" s="10"/>
-      <c r="N671" s="10"/>
+      <c r="D671" s="8"/>
+      <c r="N671" s="8"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D672" s="10"/>
-      <c r="N672" s="10"/>
+      <c r="D672" s="8"/>
+      <c r="N672" s="8"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D673" s="10"/>
-      <c r="N673" s="10"/>
+      <c r="D673" s="8"/>
+      <c r="N673" s="8"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D674" s="10"/>
-      <c r="N674" s="10"/>
+      <c r="D674" s="8"/>
+      <c r="N674" s="8"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D675" s="10"/>
-      <c r="N675" s="10"/>
+      <c r="D675" s="8"/>
+      <c r="N675" s="8"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D676" s="10"/>
-      <c r="N676" s="10"/>
+      <c r="D676" s="8"/>
+      <c r="N676" s="8"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D677" s="10"/>
-      <c r="N677" s="10"/>
+      <c r="D677" s="8"/>
+      <c r="N677" s="8"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D678" s="10"/>
-      <c r="N678" s="10"/>
+      <c r="D678" s="8"/>
+      <c r="N678" s="8"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D679" s="10"/>
-      <c r="N679" s="10"/>
+      <c r="D679" s="8"/>
+      <c r="N679" s="8"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D680" s="10"/>
-      <c r="N680" s="10"/>
+      <c r="D680" s="8"/>
+      <c r="N680" s="8"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D681" s="10"/>
-      <c r="N681" s="10"/>
+      <c r="D681" s="8"/>
+      <c r="N681" s="8"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D682" s="10"/>
-      <c r="N682" s="10"/>
+      <c r="D682" s="8"/>
+      <c r="N682" s="8"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D683" s="10"/>
-      <c r="N683" s="10"/>
+      <c r="D683" s="8"/>
+      <c r="N683" s="8"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D684" s="10"/>
-      <c r="N684" s="10"/>
+      <c r="D684" s="8"/>
+      <c r="N684" s="8"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D685" s="10"/>
-      <c r="N685" s="10"/>
+      <c r="D685" s="8"/>
+      <c r="N685" s="8"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D686" s="10"/>
-      <c r="N686" s="10"/>
+      <c r="D686" s="8"/>
+      <c r="N686" s="8"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D687" s="10"/>
-      <c r="N687" s="10"/>
+      <c r="D687" s="8"/>
+      <c r="N687" s="8"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D688" s="10"/>
-      <c r="N688" s="10"/>
+      <c r="D688" s="8"/>
+      <c r="N688" s="8"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D689" s="10"/>
-      <c r="N689" s="10"/>
+      <c r="D689" s="8"/>
+      <c r="N689" s="8"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D690" s="10"/>
-      <c r="N690" s="10"/>
+      <c r="D690" s="8"/>
+      <c r="N690" s="8"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D691" s="10"/>
-      <c r="N691" s="10"/>
+      <c r="D691" s="8"/>
+      <c r="N691" s="8"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D692" s="10"/>
-      <c r="N692" s="10"/>
+      <c r="D692" s="8"/>
+      <c r="N692" s="8"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D693" s="10"/>
-      <c r="N693" s="10"/>
+      <c r="D693" s="8"/>
+      <c r="N693" s="8"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D694" s="10"/>
-      <c r="N694" s="10"/>
+      <c r="D694" s="8"/>
+      <c r="N694" s="8"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D695" s="10"/>
-      <c r="N695" s="10"/>
+      <c r="D695" s="8"/>
+      <c r="N695" s="8"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D696" s="10"/>
-      <c r="N696" s="10"/>
+      <c r="D696" s="8"/>
+      <c r="N696" s="8"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D697" s="10"/>
-      <c r="N697" s="10"/>
+      <c r="D697" s="8"/>
+      <c r="N697" s="8"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D698" s="10"/>
-      <c r="N698" s="10"/>
+      <c r="D698" s="8"/>
+      <c r="N698" s="8"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D699" s="10"/>
-      <c r="N699" s="10"/>
+      <c r="D699" s="8"/>
+      <c r="N699" s="8"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D700" s="10"/>
-      <c r="N700" s="10"/>
+      <c r="D700" s="8"/>
+      <c r="N700" s="8"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D701" s="10"/>
-      <c r="N701" s="10"/>
+      <c r="D701" s="8"/>
+      <c r="N701" s="8"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D702" s="10"/>
-      <c r="N702" s="10"/>
+      <c r="D702" s="8"/>
+      <c r="N702" s="8"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D703" s="10"/>
-      <c r="N703" s="10"/>
+      <c r="D703" s="8"/>
+      <c r="N703" s="8"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D704" s="10"/>
-      <c r="N704" s="10"/>
+      <c r="D704" s="8"/>
+      <c r="N704" s="8"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D705" s="10"/>
-      <c r="N705" s="10"/>
+      <c r="D705" s="8"/>
+      <c r="N705" s="8"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D706" s="10"/>
-      <c r="N706" s="10"/>
+      <c r="D706" s="8"/>
+      <c r="N706" s="8"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D707" s="10"/>
-      <c r="N707" s="10"/>
+      <c r="D707" s="8"/>
+      <c r="N707" s="8"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D708" s="10"/>
-      <c r="N708" s="10"/>
+      <c r="D708" s="8"/>
+      <c r="N708" s="8"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D709" s="10"/>
-      <c r="N709" s="10"/>
+      <c r="D709" s="8"/>
+      <c r="N709" s="8"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D710" s="10"/>
-      <c r="N710" s="10"/>
+      <c r="D710" s="8"/>
+      <c r="N710" s="8"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D711" s="10"/>
-      <c r="N711" s="10"/>
+      <c r="D711" s="8"/>
+      <c r="N711" s="8"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D712" s="10"/>
-      <c r="N712" s="10"/>
+      <c r="D712" s="8"/>
+      <c r="N712" s="8"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D713" s="10"/>
-      <c r="N713" s="10"/>
+      <c r="D713" s="8"/>
+      <c r="N713" s="8"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D714" s="10"/>
-      <c r="N714" s="10"/>
+      <c r="D714" s="8"/>
+      <c r="N714" s="8"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D715" s="10"/>
-      <c r="N715" s="10"/>
+      <c r="D715" s="8"/>
+      <c r="N715" s="8"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D716" s="10"/>
-      <c r="N716" s="10"/>
+      <c r="D716" s="8"/>
+      <c r="N716" s="8"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D717" s="10"/>
-      <c r="N717" s="10"/>
+      <c r="D717" s="8"/>
+      <c r="N717" s="8"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D718" s="10"/>
-      <c r="N718" s="10"/>
+      <c r="D718" s="8"/>
+      <c r="N718" s="8"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D719" s="10"/>
-      <c r="N719" s="10"/>
+      <c r="D719" s="8"/>
+      <c r="N719" s="8"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D720" s="10"/>
-      <c r="N720" s="10"/>
+      <c r="D720" s="8"/>
+      <c r="N720" s="8"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D721" s="10"/>
-      <c r="N721" s="10"/>
+      <c r="D721" s="8"/>
+      <c r="N721" s="8"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D722" s="10"/>
-      <c r="N722" s="10"/>
+      <c r="D722" s="8"/>
+      <c r="N722" s="8"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D723" s="10"/>
-      <c r="N723" s="10"/>
+      <c r="D723" s="8"/>
+      <c r="N723" s="8"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D724" s="10"/>
-      <c r="N724" s="10"/>
+      <c r="D724" s="8"/>
+      <c r="N724" s="8"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D725" s="10"/>
-      <c r="N725" s="10"/>
+      <c r="D725" s="8"/>
+      <c r="N725" s="8"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D726" s="10"/>
-      <c r="N726" s="10"/>
+      <c r="D726" s="8"/>
+      <c r="N726" s="8"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D727" s="10"/>
-      <c r="N727" s="10"/>
+      <c r="D727" s="8"/>
+      <c r="N727" s="8"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D728" s="10"/>
-      <c r="N728" s="10"/>
+      <c r="D728" s="8"/>
+      <c r="N728" s="8"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D729" s="10"/>
-      <c r="N729" s="10"/>
+      <c r="D729" s="8"/>
+      <c r="N729" s="8"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D730" s="10"/>
-      <c r="N730" s="10"/>
+      <c r="D730" s="8"/>
+      <c r="N730" s="8"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D731" s="10"/>
-      <c r="N731" s="10"/>
+      <c r="D731" s="8"/>
+      <c r="N731" s="8"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D732" s="10"/>
-      <c r="N732" s="10"/>
+      <c r="D732" s="8"/>
+      <c r="N732" s="8"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D733" s="10"/>
-      <c r="N733" s="10"/>
+      <c r="D733" s="8"/>
+      <c r="N733" s="8"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D734" s="10"/>
-      <c r="N734" s="10"/>
+      <c r="D734" s="8"/>
+      <c r="N734" s="8"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D735" s="10"/>
-      <c r="N735" s="10"/>
+      <c r="D735" s="8"/>
+      <c r="N735" s="8"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D736" s="10"/>
-      <c r="N736" s="10"/>
+      <c r="D736" s="8"/>
+      <c r="N736" s="8"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D737" s="10"/>
-      <c r="N737" s="10"/>
+      <c r="D737" s="8"/>
+      <c r="N737" s="8"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D738" s="10"/>
-      <c r="N738" s="10"/>
+      <c r="D738" s="8"/>
+      <c r="N738" s="8"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D739" s="10"/>
-      <c r="N739" s="10"/>
+      <c r="D739" s="8"/>
+      <c r="N739" s="8"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D740" s="10"/>
-      <c r="N740" s="10"/>
+      <c r="D740" s="8"/>
+      <c r="N740" s="8"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D741" s="10"/>
-      <c r="N741" s="10"/>
+      <c r="D741" s="8"/>
+      <c r="N741" s="8"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D742" s="10"/>
-      <c r="N742" s="10"/>
+      <c r="D742" s="8"/>
+      <c r="N742" s="8"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D743" s="10"/>
-      <c r="N743" s="10"/>
+      <c r="D743" s="8"/>
+      <c r="N743" s="8"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D744" s="10"/>
-      <c r="N744" s="10"/>
+      <c r="D744" s="8"/>
+      <c r="N744" s="8"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D745" s="10"/>
-      <c r="N745" s="10"/>
+      <c r="D745" s="8"/>
+      <c r="N745" s="8"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D746" s="10"/>
-      <c r="N746" s="10"/>
+      <c r="D746" s="8"/>
+      <c r="N746" s="8"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D747" s="10"/>
-      <c r="N747" s="10"/>
+      <c r="D747" s="8"/>
+      <c r="N747" s="8"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D748" s="10"/>
-      <c r="N748" s="10"/>
+      <c r="D748" s="8"/>
+      <c r="N748" s="8"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D749" s="10"/>
-      <c r="N749" s="10"/>
+      <c r="D749" s="8"/>
+      <c r="N749" s="8"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D750" s="10"/>
-      <c r="N750" s="10"/>
+      <c r="D750" s="8"/>
+      <c r="N750" s="8"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D751" s="10"/>
-      <c r="N751" s="10"/>
+      <c r="D751" s="8"/>
+      <c r="N751" s="8"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D752" s="10"/>
-      <c r="N752" s="10"/>
+      <c r="D752" s="8"/>
+      <c r="N752" s="8"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D753" s="10"/>
-      <c r="N753" s="10"/>
+      <c r="D753" s="8"/>
+      <c r="N753" s="8"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D754" s="10"/>
-      <c r="N754" s="10"/>
+      <c r="D754" s="8"/>
+      <c r="N754" s="8"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D755" s="10"/>
-      <c r="N755" s="10"/>
+      <c r="D755" s="8"/>
+      <c r="N755" s="8"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D756" s="10"/>
-      <c r="N756" s="10"/>
+      <c r="D756" s="8"/>
+      <c r="N756" s="8"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D757" s="10"/>
-      <c r="N757" s="10"/>
+      <c r="D757" s="8"/>
+      <c r="N757" s="8"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D758" s="10"/>
-      <c r="N758" s="10"/>
+      <c r="D758" s="8"/>
+      <c r="N758" s="8"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D759" s="10"/>
-      <c r="N759" s="10"/>
+      <c r="D759" s="8"/>
+      <c r="N759" s="8"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D760" s="10"/>
-      <c r="N760" s="10"/>
+      <c r="D760" s="8"/>
+      <c r="N760" s="8"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D761" s="10"/>
-      <c r="N761" s="10"/>
+      <c r="D761" s="8"/>
+      <c r="N761" s="8"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D762" s="10"/>
-      <c r="N762" s="10"/>
+      <c r="D762" s="8"/>
+      <c r="N762" s="8"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D763" s="10"/>
-      <c r="N763" s="10"/>
+      <c r="D763" s="8"/>
+      <c r="N763" s="8"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D764" s="10"/>
-      <c r="N764" s="10"/>
+      <c r="D764" s="8"/>
+      <c r="N764" s="8"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D765" s="10"/>
-      <c r="N765" s="10"/>
+      <c r="D765" s="8"/>
+      <c r="N765" s="8"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D766" s="10"/>
-      <c r="N766" s="10"/>
+      <c r="D766" s="8"/>
+      <c r="N766" s="8"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D767" s="10"/>
-      <c r="N767" s="10"/>
+      <c r="D767" s="8"/>
+      <c r="N767" s="8"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D768" s="10"/>
-      <c r="N768" s="10"/>
+      <c r="D768" s="8"/>
+      <c r="N768" s="8"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D769" s="10"/>
-      <c r="N769" s="10"/>
+      <c r="D769" s="8"/>
+      <c r="N769" s="8"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D770" s="10"/>
-      <c r="N770" s="10"/>
+      <c r="D770" s="8"/>
+      <c r="N770" s="8"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D771" s="10"/>
-      <c r="N771" s="10"/>
+      <c r="D771" s="8"/>
+      <c r="N771" s="8"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D772" s="10"/>
-      <c r="N772" s="10"/>
+      <c r="D772" s="8"/>
+      <c r="N772" s="8"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D773" s="10"/>
-      <c r="N773" s="10"/>
+      <c r="D773" s="8"/>
+      <c r="N773" s="8"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D774" s="10"/>
-      <c r="N774" s="10"/>
+      <c r="D774" s="8"/>
+      <c r="N774" s="8"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D775" s="10"/>
-      <c r="N775" s="10"/>
+      <c r="D775" s="8"/>
+      <c r="N775" s="8"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D776" s="10"/>
-      <c r="N776" s="10"/>
+      <c r="D776" s="8"/>
+      <c r="N776" s="8"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D777" s="10"/>
-      <c r="N777" s="10"/>
+      <c r="D777" s="8"/>
+      <c r="N777" s="8"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D778" s="10"/>
-      <c r="N778" s="10"/>
+      <c r="D778" s="8"/>
+      <c r="N778" s="8"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D779" s="10"/>
-      <c r="N779" s="10"/>
+      <c r="D779" s="8"/>
+      <c r="N779" s="8"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D780" s="10"/>
-      <c r="N780" s="10"/>
+      <c r="D780" s="8"/>
+      <c r="N780" s="8"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D781" s="10"/>
-      <c r="N781" s="10"/>
+      <c r="D781" s="8"/>
+      <c r="N781" s="8"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D782" s="10"/>
-      <c r="N782" s="10"/>
+      <c r="D782" s="8"/>
+      <c r="N782" s="8"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D783" s="10"/>
-      <c r="N783" s="10"/>
+      <c r="D783" s="8"/>
+      <c r="N783" s="8"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D784" s="10"/>
-      <c r="N784" s="10"/>
+      <c r="D784" s="8"/>
+      <c r="N784" s="8"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D785" s="10"/>
-      <c r="N785" s="10"/>
+      <c r="D785" s="8"/>
+      <c r="N785" s="8"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D786" s="10"/>
-      <c r="N786" s="10"/>
+      <c r="D786" s="8"/>
+      <c r="N786" s="8"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D787" s="10"/>
-      <c r="N787" s="10"/>
+      <c r="D787" s="8"/>
+      <c r="N787" s="8"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D788" s="10"/>
-      <c r="N788" s="10"/>
+      <c r="D788" s="8"/>
+      <c r="N788" s="8"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D789" s="10"/>
-      <c r="N789" s="10"/>
+      <c r="D789" s="8"/>
+      <c r="N789" s="8"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D790" s="10"/>
-      <c r="N790" s="10"/>
+      <c r="D790" s="8"/>
+      <c r="N790" s="8"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D791" s="10"/>
-      <c r="N791" s="10"/>
+      <c r="D791" s="8"/>
+      <c r="N791" s="8"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D792" s="10"/>
-      <c r="N792" s="10"/>
+      <c r="D792" s="8"/>
+      <c r="N792" s="8"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D793" s="10"/>
-      <c r="N793" s="10"/>
+      <c r="D793" s="8"/>
+      <c r="N793" s="8"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D794" s="10"/>
-      <c r="N794" s="10"/>
+      <c r="D794" s="8"/>
+      <c r="N794" s="8"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D795" s="10"/>
-      <c r="N795" s="10"/>
+      <c r="D795" s="8"/>
+      <c r="N795" s="8"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D796" s="10"/>
-      <c r="N796" s="10"/>
+      <c r="D796" s="8"/>
+      <c r="N796" s="8"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D797" s="10"/>
-      <c r="N797" s="10"/>
+      <c r="D797" s="8"/>
+      <c r="N797" s="8"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D798" s="10"/>
-      <c r="N798" s="10"/>
+      <c r="D798" s="8"/>
+      <c r="N798" s="8"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D799" s="10"/>
-      <c r="N799" s="10"/>
+      <c r="D799" s="8"/>
+      <c r="N799" s="8"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D800" s="10"/>
-      <c r="N800" s="10"/>
+      <c r="D800" s="8"/>
+      <c r="N800" s="8"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D801" s="10"/>
-      <c r="N801" s="10"/>
+      <c r="D801" s="8"/>
+      <c r="N801" s="8"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D802" s="10"/>
-      <c r="N802" s="10"/>
+      <c r="D802" s="8"/>
+      <c r="N802" s="8"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D803" s="10"/>
-      <c r="N803" s="10"/>
+      <c r="D803" s="8"/>
+      <c r="N803" s="8"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D804" s="10"/>
-      <c r="N804" s="10"/>
+      <c r="D804" s="8"/>
+      <c r="N804" s="8"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D805" s="10"/>
-      <c r="N805" s="10"/>
+      <c r="D805" s="8"/>
+      <c r="N805" s="8"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D806" s="10"/>
-      <c r="N806" s="10"/>
+      <c r="D806" s="8"/>
+      <c r="N806" s="8"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D807" s="10"/>
-      <c r="N807" s="10"/>
+      <c r="D807" s="8"/>
+      <c r="N807" s="8"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D808" s="10"/>
-      <c r="N808" s="10"/>
+      <c r="D808" s="8"/>
+      <c r="N808" s="8"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D809" s="10"/>
-      <c r="N809" s="10"/>
+      <c r="D809" s="8"/>
+      <c r="N809" s="8"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D810" s="10"/>
-      <c r="N810" s="10"/>
+      <c r="D810" s="8"/>
+      <c r="N810" s="8"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D811" s="10"/>
-      <c r="N811" s="10"/>
+      <c r="D811" s="8"/>
+      <c r="N811" s="8"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D812" s="10"/>
-      <c r="N812" s="10"/>
+      <c r="D812" s="8"/>
+      <c r="N812" s="8"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D813" s="10"/>
-      <c r="N813" s="10"/>
+      <c r="D813" s="8"/>
+      <c r="N813" s="8"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D814" s="10"/>
-      <c r="N814" s="10"/>
+      <c r="D814" s="8"/>
+      <c r="N814" s="8"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D815" s="10"/>
-      <c r="N815" s="10"/>
+      <c r="D815" s="8"/>
+      <c r="N815" s="8"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D816" s="10"/>
-      <c r="N816" s="10"/>
+      <c r="D816" s="8"/>
+      <c r="N816" s="8"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D817" s="10"/>
-      <c r="N817" s="10"/>
+      <c r="D817" s="8"/>
+      <c r="N817" s="8"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D818" s="10"/>
-      <c r="N818" s="10"/>
+      <c r="D818" s="8"/>
+      <c r="N818" s="8"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D819" s="10"/>
-      <c r="N819" s="10"/>
+      <c r="D819" s="8"/>
+      <c r="N819" s="8"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D820" s="10"/>
-      <c r="N820" s="10"/>
+      <c r="D820" s="8"/>
+      <c r="N820" s="8"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D821" s="10"/>
-      <c r="N821" s="10"/>
+      <c r="D821" s="8"/>
+      <c r="N821" s="8"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D822" s="10"/>
-      <c r="N822" s="10"/>
+      <c r="D822" s="8"/>
+      <c r="N822" s="8"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D823" s="10"/>
-      <c r="N823" s="10"/>
+      <c r="D823" s="8"/>
+      <c r="N823" s="8"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D824" s="10"/>
-      <c r="N824" s="10"/>
+      <c r="D824" s="8"/>
+      <c r="N824" s="8"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D825" s="10"/>
-      <c r="N825" s="10"/>
+      <c r="D825" s="8"/>
+      <c r="N825" s="8"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D826" s="10"/>
-      <c r="N826" s="10"/>
+      <c r="D826" s="8"/>
+      <c r="N826" s="8"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D827" s="10"/>
-      <c r="N827" s="10"/>
+      <c r="D827" s="8"/>
+      <c r="N827" s="8"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D828" s="10"/>
-      <c r="N828" s="10"/>
+      <c r="D828" s="8"/>
+      <c r="N828" s="8"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D829" s="10"/>
-      <c r="N829" s="10"/>
+      <c r="D829" s="8"/>
+      <c r="N829" s="8"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D830" s="10"/>
-      <c r="N830" s="10"/>
+      <c r="D830" s="8"/>
+      <c r="N830" s="8"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D831" s="10"/>
-      <c r="N831" s="10"/>
+      <c r="D831" s="8"/>
+      <c r="N831" s="8"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D832" s="10"/>
-      <c r="N832" s="10"/>
+      <c r="D832" s="8"/>
+      <c r="N832" s="8"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D833" s="10"/>
-      <c r="N833" s="10"/>
+      <c r="D833" s="8"/>
+      <c r="N833" s="8"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D834" s="10"/>
-      <c r="N834" s="10"/>
+      <c r="D834" s="8"/>
+      <c r="N834" s="8"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D835" s="10"/>
-      <c r="N835" s="10"/>
+      <c r="D835" s="8"/>
+      <c r="N835" s="8"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D836" s="10"/>
-      <c r="N836" s="10"/>
+      <c r="D836" s="8"/>
+      <c r="N836" s="8"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D837" s="10"/>
-      <c r="N837" s="10"/>
+      <c r="D837" s="8"/>
+      <c r="N837" s="8"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D838" s="10"/>
-      <c r="N838" s="10"/>
+      <c r="D838" s="8"/>
+      <c r="N838" s="8"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D839" s="10"/>
-      <c r="N839" s="10"/>
+      <c r="D839" s="8"/>
+      <c r="N839" s="8"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D840" s="10"/>
-      <c r="N840" s="10"/>
+      <c r="D840" s="8"/>
+      <c r="N840" s="8"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D841" s="10"/>
-      <c r="N841" s="10"/>
+      <c r="D841" s="8"/>
+      <c r="N841" s="8"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D842" s="10"/>
-      <c r="N842" s="10"/>
+      <c r="D842" s="8"/>
+      <c r="N842" s="8"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D843" s="10"/>
-      <c r="N843" s="10"/>
+      <c r="D843" s="8"/>
+      <c r="N843" s="8"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D844" s="10"/>
-      <c r="N844" s="10"/>
+      <c r="D844" s="8"/>
+      <c r="N844" s="8"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D845" s="10"/>
-      <c r="N845" s="10"/>
+      <c r="D845" s="8"/>
+      <c r="N845" s="8"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D846" s="10"/>
-      <c r="N846" s="10"/>
+      <c r="D846" s="8"/>
+      <c r="N846" s="8"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D847" s="10"/>
-      <c r="N847" s="10"/>
+      <c r="D847" s="8"/>
+      <c r="N847" s="8"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D848" s="10"/>
-      <c r="N848" s="10"/>
+      <c r="D848" s="8"/>
+      <c r="N848" s="8"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D849" s="10"/>
-      <c r="N849" s="10"/>
+      <c r="D849" s="8"/>
+      <c r="N849" s="8"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D850" s="10"/>
-      <c r="N850" s="10"/>
+      <c r="D850" s="8"/>
+      <c r="N850" s="8"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D851" s="10"/>
-      <c r="N851" s="10"/>
+      <c r="D851" s="8"/>
+      <c r="N851" s="8"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D852" s="10"/>
-      <c r="N852" s="10"/>
+      <c r="D852" s="8"/>
+      <c r="N852" s="8"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D853" s="10"/>
-      <c r="N853" s="10"/>
+      <c r="D853" s="8"/>
+      <c r="N853" s="8"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D854" s="10"/>
-      <c r="N854" s="10"/>
+      <c r="D854" s="8"/>
+      <c r="N854" s="8"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D855" s="10"/>
-      <c r="N855" s="10"/>
+      <c r="D855" s="8"/>
+      <c r="N855" s="8"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D856" s="10"/>
-      <c r="N856" s="10"/>
+      <c r="D856" s="8"/>
+      <c r="N856" s="8"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D857" s="10"/>
-      <c r="N857" s="10"/>
+      <c r="D857" s="8"/>
+      <c r="N857" s="8"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D858" s="10"/>
-      <c r="N858" s="10"/>
+      <c r="D858" s="8"/>
+      <c r="N858" s="8"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D859" s="10"/>
-      <c r="N859" s="10"/>
+      <c r="D859" s="8"/>
+      <c r="N859" s="8"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D860" s="10"/>
-      <c r="N860" s="10"/>
+      <c r="D860" s="8"/>
+      <c r="N860" s="8"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D861" s="10"/>
-      <c r="N861" s="10"/>
+      <c r="D861" s="8"/>
+      <c r="N861" s="8"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D862" s="10"/>
-      <c r="N862" s="10"/>
+      <c r="D862" s="8"/>
+      <c r="N862" s="8"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D863" s="10"/>
-      <c r="N863" s="10"/>
+      <c r="D863" s="8"/>
+      <c r="N863" s="8"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D864" s="10"/>
-      <c r="N864" s="10"/>
+      <c r="D864" s="8"/>
+      <c r="N864" s="8"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D865" s="10"/>
-      <c r="N865" s="10"/>
+      <c r="D865" s="8"/>
+      <c r="N865" s="8"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D866" s="10"/>
-      <c r="N866" s="10"/>
+      <c r="D866" s="8"/>
+      <c r="N866" s="8"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D867" s="10"/>
-      <c r="N867" s="10"/>
+      <c r="D867" s="8"/>
+      <c r="N867" s="8"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D868" s="10"/>
-      <c r="N868" s="10"/>
+      <c r="D868" s="8"/>
+      <c r="N868" s="8"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D869" s="10"/>
-      <c r="N869" s="10"/>
+      <c r="D869" s="8"/>
+      <c r="N869" s="8"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D870" s="10"/>
-      <c r="N870" s="10"/>
+      <c r="D870" s="8"/>
+      <c r="N870" s="8"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D871" s="10"/>
-      <c r="N871" s="10"/>
+      <c r="D871" s="8"/>
+      <c r="N871" s="8"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D872" s="10"/>
-      <c r="N872" s="10"/>
+      <c r="D872" s="8"/>
+      <c r="N872" s="8"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D873" s="10"/>
-      <c r="N873" s="10"/>
+      <c r="D873" s="8"/>
+      <c r="N873" s="8"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D874" s="10"/>
-      <c r="N874" s="10"/>
+      <c r="D874" s="8"/>
+      <c r="N874" s="8"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D875" s="10"/>
-      <c r="N875" s="10"/>
+      <c r="D875" s="8"/>
+      <c r="N875" s="8"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D876" s="10"/>
-      <c r="N876" s="10"/>
+      <c r="D876" s="8"/>
+      <c r="N876" s="8"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D877" s="10"/>
-      <c r="N877" s="10"/>
+      <c r="D877" s="8"/>
+      <c r="N877" s="8"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D878" s="10"/>
-      <c r="N878" s="10"/>
+      <c r="D878" s="8"/>
+      <c r="N878" s="8"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D879" s="10"/>
-      <c r="N879" s="10"/>
+      <c r="D879" s="8"/>
+      <c r="N879" s="8"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D880" s="10"/>
-      <c r="N880" s="10"/>
+      <c r="D880" s="8"/>
+      <c r="N880" s="8"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D881" s="10"/>
-      <c r="N881" s="10"/>
+      <c r="D881" s="8"/>
+      <c r="N881" s="8"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D882" s="10"/>
-      <c r="N882" s="10"/>
+      <c r="D882" s="8"/>
+      <c r="N882" s="8"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D883" s="10"/>
-      <c r="N883" s="10"/>
+      <c r="D883" s="8"/>
+      <c r="N883" s="8"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D884" s="10"/>
-      <c r="N884" s="10"/>
+      <c r="D884" s="8"/>
+      <c r="N884" s="8"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D885" s="10"/>
-      <c r="N885" s="10"/>
+      <c r="D885" s="8"/>
+      <c r="N885" s="8"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D886" s="10"/>
-      <c r="N886" s="10"/>
+      <c r="D886" s="8"/>
+      <c r="N886" s="8"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D887" s="10"/>
-      <c r="N887" s="10"/>
+      <c r="D887" s="8"/>
+      <c r="N887" s="8"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D888" s="10"/>
-      <c r="N888" s="10"/>
+      <c r="D888" s="8"/>
+      <c r="N888" s="8"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D889" s="10"/>
-      <c r="N889" s="10"/>
+      <c r="D889" s="8"/>
+      <c r="N889" s="8"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D890" s="10"/>
-      <c r="N890" s="10"/>
+      <c r="D890" s="8"/>
+      <c r="N890" s="8"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D891" s="10"/>
-      <c r="N891" s="10"/>
+      <c r="D891" s="8"/>
+      <c r="N891" s="8"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D892" s="10"/>
-      <c r="N892" s="10"/>
+      <c r="D892" s="8"/>
+      <c r="N892" s="8"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D893" s="10"/>
-      <c r="N893" s="10"/>
+      <c r="D893" s="8"/>
+      <c r="N893" s="8"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D894" s="10"/>
-      <c r="N894" s="10"/>
+      <c r="D894" s="8"/>
+      <c r="N894" s="8"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D895" s="10"/>
-      <c r="N895" s="10"/>
+      <c r="D895" s="8"/>
+      <c r="N895" s="8"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D896" s="10"/>
-      <c r="N896" s="10"/>
+      <c r="D896" s="8"/>
+      <c r="N896" s="8"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D897" s="10"/>
-      <c r="N897" s="10"/>
+      <c r="D897" s="8"/>
+      <c r="N897" s="8"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D898" s="10"/>
-      <c r="N898" s="10"/>
+      <c r="D898" s="8"/>
+      <c r="N898" s="8"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D899" s="10"/>
-      <c r="N899" s="10"/>
+      <c r="D899" s="8"/>
+      <c r="N899" s="8"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D900" s="10"/>
-      <c r="N900" s="10"/>
+      <c r="D900" s="8"/>
+      <c r="N900" s="8"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D901" s="10"/>
-      <c r="N901" s="10"/>
+      <c r="D901" s="8"/>
+      <c r="N901" s="8"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D902" s="10"/>
-      <c r="N902" s="10"/>
+      <c r="D902" s="8"/>
+      <c r="N902" s="8"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D903" s="10"/>
-      <c r="N903" s="10"/>
+      <c r="D903" s="8"/>
+      <c r="N903" s="8"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D904" s="10"/>
-      <c r="N904" s="10"/>
+      <c r="D904" s="8"/>
+      <c r="N904" s="8"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D905" s="10"/>
-      <c r="N905" s="10"/>
+      <c r="D905" s="8"/>
+      <c r="N905" s="8"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D906" s="10"/>
-      <c r="N906" s="10"/>
+      <c r="D906" s="8"/>
+      <c r="N906" s="8"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D907" s="10"/>
-      <c r="N907" s="10"/>
+      <c r="D907" s="8"/>
+      <c r="N907" s="8"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D908" s="10"/>
-      <c r="N908" s="10"/>
+      <c r="D908" s="8"/>
+      <c r="N908" s="8"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D909" s="10"/>
-      <c r="N909" s="10"/>
+      <c r="D909" s="8"/>
+      <c r="N909" s="8"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D910" s="10"/>
-      <c r="N910" s="10"/>
+      <c r="D910" s="8"/>
+      <c r="N910" s="8"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D911" s="10"/>
-      <c r="N911" s="10"/>
+      <c r="D911" s="8"/>
+      <c r="N911" s="8"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D912" s="10"/>
-      <c r="N912" s="10"/>
+      <c r="D912" s="8"/>
+      <c r="N912" s="8"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D913" s="10"/>
-      <c r="N913" s="10"/>
+      <c r="D913" s="8"/>
+      <c r="N913" s="8"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D914" s="10"/>
-      <c r="N914" s="10"/>
+      <c r="D914" s="8"/>
+      <c r="N914" s="8"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D915" s="10"/>
-      <c r="N915" s="10"/>
+      <c r="D915" s="8"/>
+      <c r="N915" s="8"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D916" s="10"/>
-      <c r="N916" s="10"/>
+      <c r="D916" s="8"/>
+      <c r="N916" s="8"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D917" s="10"/>
-      <c r="N917" s="10"/>
+      <c r="D917" s="8"/>
+      <c r="N917" s="8"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D918" s="10"/>
-      <c r="N918" s="10"/>
+      <c r="D918" s="8"/>
+      <c r="N918" s="8"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D919" s="10"/>
-      <c r="N919" s="10"/>
+      <c r="D919" s="8"/>
+      <c r="N919" s="8"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D920" s="10"/>
-      <c r="N920" s="10"/>
+      <c r="D920" s="8"/>
+      <c r="N920" s="8"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D921" s="10"/>
-      <c r="N921" s="10"/>
+      <c r="D921" s="8"/>
+      <c r="N921" s="8"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D922" s="10"/>
-      <c r="N922" s="10"/>
+      <c r="D922" s="8"/>
+      <c r="N922" s="8"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D923" s="10"/>
-      <c r="N923" s="10"/>
+      <c r="D923" s="8"/>
+      <c r="N923" s="8"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D924" s="10"/>
-      <c r="N924" s="10"/>
+      <c r="D924" s="8"/>
+      <c r="N924" s="8"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D925" s="10"/>
-      <c r="N925" s="10"/>
+      <c r="D925" s="8"/>
+      <c r="N925" s="8"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D926" s="10"/>
-      <c r="N926" s="10"/>
+      <c r="D926" s="8"/>
+      <c r="N926" s="8"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D927" s="10"/>
-      <c r="N927" s="10"/>
+      <c r="D927" s="8"/>
+      <c r="N927" s="8"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D928" s="10"/>
-      <c r="N928" s="10"/>
+      <c r="D928" s="8"/>
+      <c r="N928" s="8"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D929" s="10"/>
-      <c r="N929" s="10"/>
+      <c r="D929" s="8"/>
+      <c r="N929" s="8"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D930" s="10"/>
-      <c r="N930" s="10"/>
+      <c r="D930" s="8"/>
+      <c r="N930" s="8"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D931" s="10"/>
-      <c r="N931" s="10"/>
+      <c r="D931" s="8"/>
+      <c r="N931" s="8"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D932" s="10"/>
-      <c r="N932" s="10"/>
+      <c r="D932" s="8"/>
+      <c r="N932" s="8"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D933" s="10"/>
-      <c r="N933" s="10"/>
+      <c r="D933" s="8"/>
+      <c r="N933" s="8"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D934" s="10"/>
-      <c r="N934" s="10"/>
+      <c r="D934" s="8"/>
+      <c r="N934" s="8"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D935" s="10"/>
-      <c r="N935" s="10"/>
+      <c r="D935" s="8"/>
+      <c r="N935" s="8"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D936" s="10"/>
-      <c r="N936" s="10"/>
+      <c r="D936" s="8"/>
+      <c r="N936" s="8"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D937" s="10"/>
-      <c r="N937" s="10"/>
+      <c r="D937" s="8"/>
+      <c r="N937" s="8"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D938" s="10"/>
-      <c r="N938" s="10"/>
+      <c r="D938" s="8"/>
+      <c r="N938" s="8"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D939" s="10"/>
-      <c r="N939" s="10"/>
+      <c r="D939" s="8"/>
+      <c r="N939" s="8"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D940" s="10"/>
-      <c r="N940" s="10"/>
+      <c r="D940" s="8"/>
+      <c r="N940" s="8"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D941" s="10"/>
-      <c r="N941" s="10"/>
+      <c r="D941" s="8"/>
+      <c r="N941" s="8"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D942" s="10"/>
-      <c r="N942" s="10"/>
+      <c r="D942" s="8"/>
+      <c r="N942" s="8"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D943" s="10"/>
-      <c r="N943" s="10"/>
+      <c r="D943" s="8"/>
+      <c r="N943" s="8"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D944" s="10"/>
-      <c r="N944" s="10"/>
+      <c r="D944" s="8"/>
+      <c r="N944" s="8"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D945" s="10"/>
-      <c r="N945" s="10"/>
+      <c r="D945" s="8"/>
+      <c r="N945" s="8"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D946" s="10"/>
-      <c r="N946" s="10"/>
+      <c r="D946" s="8"/>
+      <c r="N946" s="8"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D947" s="10"/>
-      <c r="N947" s="10"/>
+      <c r="D947" s="8"/>
+      <c r="N947" s="8"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D948" s="10"/>
-      <c r="N948" s="10"/>
+      <c r="D948" s="8"/>
+      <c r="N948" s="8"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D949" s="10"/>
-      <c r="N949" s="10"/>
+      <c r="D949" s="8"/>
+      <c r="N949" s="8"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D950" s="10"/>
-      <c r="N950" s="10"/>
+      <c r="D950" s="8"/>
+      <c r="N950" s="8"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D951" s="10"/>
-      <c r="N951" s="10"/>
+      <c r="D951" s="8"/>
+      <c r="N951" s="8"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D952" s="10"/>
-      <c r="N952" s="10"/>
+      <c r="D952" s="8"/>
+      <c r="N952" s="8"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D953" s="10"/>
-      <c r="N953" s="10"/>
+      <c r="D953" s="8"/>
+      <c r="N953" s="8"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D954" s="10"/>
-      <c r="N954" s="10"/>
+      <c r="D954" s="8"/>
+      <c r="N954" s="8"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D955" s="10"/>
-      <c r="N955" s="10"/>
+      <c r="D955" s="8"/>
+      <c r="N955" s="8"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D956" s="10"/>
-      <c r="N956" s="10"/>
+      <c r="D956" s="8"/>
+      <c r="N956" s="8"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D957" s="10"/>
-      <c r="N957" s="10"/>
+      <c r="D957" s="8"/>
+      <c r="N957" s="8"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D958" s="10"/>
-      <c r="N958" s="10"/>
+      <c r="D958" s="8"/>
+      <c r="N958" s="8"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D959" s="10"/>
-      <c r="N959" s="10"/>
+      <c r="D959" s="8"/>
+      <c r="N959" s="8"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D960" s="10"/>
-      <c r="N960" s="10"/>
+      <c r="D960" s="8"/>
+      <c r="N960" s="8"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D961" s="10"/>
-      <c r="N961" s="10"/>
+      <c r="D961" s="8"/>
+      <c r="N961" s="8"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D962" s="10"/>
-      <c r="N962" s="10"/>
+      <c r="D962" s="8"/>
+      <c r="N962" s="8"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D963" s="10"/>
-      <c r="N963" s="10"/>
+      <c r="D963" s="8"/>
+      <c r="N963" s="8"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D964" s="10"/>
-      <c r="N964" s="10"/>
+      <c r="D964" s="8"/>
+      <c r="N964" s="8"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D965" s="10"/>
-      <c r="N965" s="10"/>
+      <c r="D965" s="8"/>
+      <c r="N965" s="8"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D966" s="10"/>
-      <c r="N966" s="10"/>
+      <c r="D966" s="8"/>
+      <c r="N966" s="8"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D967" s="10"/>
-      <c r="N967" s="10"/>
+      <c r="D967" s="8"/>
+      <c r="N967" s="8"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D968" s="10"/>
-      <c r="N968" s="10"/>
+      <c r="D968" s="8"/>
+      <c r="N968" s="8"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D969" s="10"/>
-      <c r="N969" s="10"/>
+      <c r="D969" s="8"/>
+      <c r="N969" s="8"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D970" s="10"/>
-      <c r="N970" s="10"/>
+      <c r="D970" s="8"/>
+      <c r="N970" s="8"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D971" s="10"/>
-      <c r="N971" s="10"/>
+      <c r="D971" s="8"/>
+      <c r="N971" s="8"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D972" s="10"/>
-      <c r="N972" s="10"/>
+      <c r="D972" s="8"/>
+      <c r="N972" s="8"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D973" s="10"/>
-      <c r="N973" s="10"/>
+      <c r="D973" s="8"/>
+      <c r="N973" s="8"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D974" s="10"/>
-      <c r="N974" s="10"/>
+      <c r="D974" s="8"/>
+      <c r="N974" s="8"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D975" s="10"/>
-      <c r="N975" s="10"/>
+      <c r="D975" s="8"/>
+      <c r="N975" s="8"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D976" s="10"/>
-      <c r="N976" s="10"/>
+      <c r="D976" s="8"/>
+      <c r="N976" s="8"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D977" s="10"/>
-      <c r="N977" s="10"/>
+      <c r="D977" s="8"/>
+      <c r="N977" s="8"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D978" s="10"/>
-      <c r="N978" s="10"/>
+      <c r="D978" s="8"/>
+      <c r="N978" s="8"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D979" s="10"/>
-      <c r="N979" s="10"/>
+      <c r="D979" s="8"/>
+      <c r="N979" s="8"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D980" s="10"/>
-      <c r="N980" s="10"/>
+      <c r="D980" s="8"/>
+      <c r="N980" s="8"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D981" s="10"/>
-      <c r="N981" s="10"/>
+      <c r="D981" s="8"/>
+      <c r="N981" s="8"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D982" s="10"/>
-      <c r="N982" s="10"/>
+      <c r="D982" s="8"/>
+      <c r="N982" s="8"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D983" s="10"/>
-      <c r="N983" s="10"/>
+      <c r="D983" s="8"/>
+      <c r="N983" s="8"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D984" s="10"/>
-      <c r="N984" s="10"/>
+      <c r="D984" s="8"/>
+      <c r="N984" s="8"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D985" s="10"/>
-      <c r="N985" s="10"/>
+      <c r="D985" s="8"/>
+      <c r="N985" s="8"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D986" s="10"/>
-      <c r="N986" s="10"/>
+      <c r="D986" s="8"/>
+      <c r="N986" s="8"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D987" s="10"/>
-      <c r="N987" s="10"/>
+      <c r="D987" s="8"/>
+      <c r="N987" s="8"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D988" s="10"/>
-      <c r="N988" s="10"/>
+      <c r="D988" s="8"/>
+      <c r="N988" s="8"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D989" s="10"/>
-      <c r="N989" s="10"/>
+      <c r="D989" s="8"/>
+      <c r="N989" s="8"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D990" s="10"/>
-      <c r="N990" s="10"/>
+      <c r="D990" s="8"/>
+      <c r="N990" s="8"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D991" s="10"/>
-      <c r="N991" s="10"/>
+      <c r="D991" s="8"/>
+      <c r="N991" s="8"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D992" s="10"/>
-      <c r="N992" s="10"/>
+      <c r="D992" s="8"/>
+      <c r="N992" s="8"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D993" s="10"/>
-      <c r="N993" s="10"/>
+      <c r="D993" s="8"/>
+      <c r="N993" s="8"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D994" s="10"/>
-      <c r="N994" s="10"/>
+      <c r="D994" s="8"/>
+      <c r="N994" s="8"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D995" s="10"/>
-      <c r="N995" s="10"/>
+      <c r="D995" s="8"/>
+      <c r="N995" s="8"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D996" s="10"/>
-      <c r="N996" s="10"/>
+      <c r="D996" s="8"/>
+      <c r="N996" s="8"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D997" s="10"/>
-      <c r="N997" s="10"/>
+      <c r="D997" s="8"/>
+      <c r="N997" s="8"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D998" s="10"/>
-      <c r="N998" s="10"/>
+      <c r="D998" s="8"/>
+      <c r="N998" s="8"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D999" s="10"/>
-      <c r="N999" s="10"/>
+      <c r="D999" s="8"/>
+      <c r="N999" s="8"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1000" s="10"/>
-      <c r="N1000" s="10"/>
+      <c r="D1000" s="8"/>
+      <c r="N1000" s="8"/>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1001" s="10"/>
-      <c r="N1001" s="10"/>
+      <c r="D1001" s="8"/>
+      <c r="N1001" s="8"/>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1002" s="10"/>
-      <c r="N1002" s="10"/>
+      <c r="D1002" s="8"/>
+      <c r="N1002" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/data/saek.xlsx
+++ b/data/saek.xlsx
@@ -544,8 +544,8 @@
   </sheetPr>
   <dimension ref="A1:AS1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI2" activeCellId="0" sqref="AI2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -763,9 +763,6 @@
       <c r="P2" s="2" t="n">
         <v>6987894565</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>2101235468</v>
-      </c>
       <c r="R2" s="1" t="s">
         <v>53</v>
       </c>
